--- a/Участок ремонта форм/Документация/ПЕРЕЧЕНЬ СРЕДСТВ ИЗМЕРЕНИЙ.xlsx
+++ b/Участок ремонта форм/Документация/ПЕРЕЧЕНЬ СРЕДСТВ ИЗМЕРЕНИЙ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18312" windowHeight="13176" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18315" windowHeight="13170" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Инструменты на отчете" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="213">
   <si>
     <t>№ п/п</t>
   </si>
@@ -692,6 +692,9 @@
   <si>
     <t>Манометр давления ацетиленовый</t>
   </si>
+  <si>
+    <t>С нутромером 017</t>
+  </si>
 </sst>
 </file>
 
@@ -701,7 +704,7 @@
     <numFmt numFmtId="164" formatCode="[$-F419]yyyy\,\ mmmm;@"/>
     <numFmt numFmtId="165" formatCode="0000000000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1760,6 +1763,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1774,9 +1780,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2099,95 +2102,95 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="130">
         <v>2904</v>
       </c>
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="130">
         <v>4591</v>
       </c>
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="210" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="130">
         <v>4567</v>
       </c>
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="210" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="130">
         <v>2907</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="210" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="130">
         <v>5446</v>
       </c>
-      <c r="B5" s="209" t="s">
+      <c r="B5" s="210" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="130">
         <v>2802</v>
       </c>
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="210" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="130">
         <v>4508</v>
       </c>
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="210" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="130">
         <v>1955</v>
       </c>
-      <c r="B8" s="209" t="s">
+      <c r="B8" s="210" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="209"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2212,27 +2215,27 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="59" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="60" t="s">
         <v>99</v>
       </c>
@@ -2250,18 +2253,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="61" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="61" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="34">
         <v>1</v>
       </c>
@@ -2272,7 +2275,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1">
       <c r="A2" s="34">
         <f>A1+1</f>
         <v>2</v>
@@ -2284,7 +2287,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="19.5" thickBot="1">
       <c r="A3" s="34">
         <f t="shared" ref="A3:A16" si="0">A2+1</f>
         <v>3</v>
@@ -2296,7 +2299,7 @@
       <c r="F3" s="99"/>
       <c r="G3" s="26"/>
     </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="19.5" thickBot="1">
       <c r="A4" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2308,7 +2311,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="19.5" thickBot="1">
       <c r="A5" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2320,7 +2323,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2332,7 +2335,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="19.5" thickBot="1">
       <c r="A7" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2344,7 +2347,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="19.5" thickBot="1">
       <c r="A8" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2354,7 +2357,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="19.5" thickBot="1">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2364,7 +2367,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="19.5" thickBot="1">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2374,7 +2377,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2384,7 +2387,7 @@
       <c r="D11" s="21"/>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="19.5" thickBot="1">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2394,7 +2397,7 @@
       <c r="D12" s="21"/>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="19.5" thickBot="1">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2404,7 +2407,7 @@
       <c r="D13" s="21"/>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="19.5" thickBot="1">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2414,7 +2417,7 @@
       <c r="D14" s="21"/>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="19.5" thickBot="1">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2424,7 +2427,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="49"/>
     </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="19.5" thickBot="1">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2448,19 +2451,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="3" t="s">
         <v>188</v>
       </c>
@@ -2470,7 +2473,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" s="3" t="s">
         <v>144</v>
       </c>
@@ -2480,17 +2483,17 @@
       <c r="E2" s="3"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="210" t="s">
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2498,7 +2501,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="53.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="55.5" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -2542,18 +2545,18 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="211" t="s">
+    <row r="7" spans="1:7" ht="27" customHeight="1" thickBot="1">
+      <c r="A7" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -2562,7 +2565,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A9" s="34">
         <v>1</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="34">
         <f>A9+1</f>
         <v>2</v>
@@ -2611,7 +2614,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="34">
         <f t="shared" ref="A11:A29" si="1">A10+1</f>
         <v>3</v>
@@ -2636,7 +2639,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2661,7 +2664,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="19.5" thickBot="1">
       <c r="A13" s="34">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2684,7 +2687,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="34">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2707,7 +2710,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="34">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2730,7 +2733,7 @@
       </c>
       <c r="G15" s="200"/>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="34">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2753,7 +2756,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A17" s="34">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2776,7 +2779,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A18" s="34">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2799,7 +2802,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A19" s="34">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2820,7 +2823,7 @@
       </c>
       <c r="G19" s="200"/>
     </row>
-    <row r="20" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A20" s="34">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2843,7 +2846,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="60" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" s="60" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="122">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2864,7 +2867,7 @@
       </c>
       <c r="G21" s="202"/>
     </row>
-    <row r="22" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A22" s="34">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2887,7 +2890,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A23" s="34">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2912,7 +2915,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="34">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2935,7 +2938,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A25" s="34">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2960,7 +2963,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A26" s="34">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2985,7 +2988,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A27" s="34">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3008,7 +3011,7 @@
       </c>
       <c r="G27" s="201"/>
     </row>
-    <row r="28" spans="1:7" s="139" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" s="139" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A28" s="34">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3033,7 +3036,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A29" s="122">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3056,7 +3059,7 @@
       </c>
       <c r="G29" s="202"/>
     </row>
-    <row r="30" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A30" s="34"/>
       <c r="B30" s="100"/>
       <c r="C30" s="101"/>
@@ -3065,7 +3068,7 @@
       <c r="F30" s="136"/>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A31" s="34"/>
       <c r="B31" s="100"/>
       <c r="C31" s="101"/>
@@ -3074,7 +3077,7 @@
       <c r="F31" s="136"/>
       <c r="G31" s="26"/>
     </row>
-    <row r="32" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A32" s="103"/>
       <c r="B32" s="100"/>
       <c r="C32" s="101"/>
@@ -3083,7 +3086,7 @@
       <c r="F32" s="136"/>
       <c r="G32" s="26"/>
     </row>
-    <row r="33" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="27" customHeight="1" thickBot="1">
       <c r="A33" s="103"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -3093,7 +3096,7 @@
       <c r="G33" s="26"/>
       <c r="H33" s="62"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A34" s="103"/>
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
@@ -3102,7 +3105,7 @@
       <c r="F34" s="136"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="27" customHeight="1" thickBot="1">
       <c r="A35" s="103"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -3111,7 +3114,7 @@
       <c r="F35" s="136"/>
       <c r="G35" s="66"/>
     </row>
-    <row r="36" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="27" customHeight="1" thickBot="1">
       <c r="A36" s="34"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -3120,7 +3123,7 @@
       <c r="F36" s="136"/>
       <c r="G36" s="26"/>
     </row>
-    <row r="37" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="27" customHeight="1" thickBot="1">
       <c r="A37" s="34"/>
       <c r="B37" s="105"/>
       <c r="C37" s="106"/>
@@ -3129,7 +3132,7 @@
       <c r="F37" s="136"/>
       <c r="G37" s="26"/>
     </row>
-    <row r="38" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="27" customHeight="1">
       <c r="A38" s="75"/>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -3138,7 +3141,7 @@
       <c r="F38" s="75"/>
       <c r="G38" s="75"/>
     </row>
-    <row r="39" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="27" customHeight="1">
       <c r="A39" s="75"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -3147,7 +3150,7 @@
       <c r="F39" s="75"/>
       <c r="G39" s="75"/>
     </row>
-    <row r="40" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="27" customHeight="1">
       <c r="A40" s="75"/>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
@@ -3156,7 +3159,7 @@
       <c r="F40" s="75"/>
       <c r="G40" s="75"/>
     </row>
-    <row r="41" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="27" customHeight="1">
       <c r="A41" s="75"/>
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
@@ -3165,7 +3168,7 @@
       <c r="F41" s="75"/>
       <c r="G41" s="75"/>
     </row>
-    <row r="42" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="27" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -3174,7 +3177,7 @@
       <c r="F42" s="75"/>
       <c r="G42" s="75"/>
     </row>
-    <row r="43" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="27" customHeight="1">
       <c r="A43" s="75"/>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
@@ -3183,7 +3186,7 @@
       <c r="F43" s="75"/>
       <c r="G43" s="75"/>
     </row>
-    <row r="44" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="27" customHeight="1">
       <c r="A44" s="75"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -3192,7 +3195,7 @@
       <c r="F44" s="75"/>
       <c r="G44" s="75"/>
     </row>
-    <row r="45" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="27" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
@@ -3201,7 +3204,7 @@
       <c r="F45" s="75"/>
       <c r="G45" s="75"/>
     </row>
-    <row r="46" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="27" customHeight="1">
       <c r="A46" s="75"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -3210,7 +3213,7 @@
       <c r="F46" s="75"/>
       <c r="G46" s="75"/>
     </row>
-    <row r="47" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" ht="27" customHeight="1">
       <c r="A47" s="75"/>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
@@ -3219,7 +3222,7 @@
       <c r="F47" s="75"/>
       <c r="G47" s="75"/>
     </row>
-    <row r="48" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="27" customHeight="1">
       <c r="A48" s="75"/>
       <c r="B48" s="75"/>
       <c r="C48" s="75"/>
@@ -3228,7 +3231,7 @@
       <c r="F48" s="75"/>
       <c r="G48" s="75"/>
     </row>
-    <row r="49" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="27" customHeight="1">
       <c r="A49" s="75"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
@@ -3237,7 +3240,7 @@
       <c r="F49" s="75"/>
       <c r="G49" s="75"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A50" s="75"/>
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
@@ -3246,7 +3249,7 @@
       <c r="F50" s="75"/>
       <c r="G50" s="75"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A51" s="75"/>
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
@@ -3255,7 +3258,7 @@
       <c r="F51" s="75"/>
       <c r="G51" s="75"/>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A52" s="75"/>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -3264,7 +3267,7 @@
       <c r="F52" s="75"/>
       <c r="G52" s="75"/>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -3273,7 +3276,7 @@
       <c r="F53" s="75"/>
       <c r="G53" s="75"/>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
@@ -3282,7 +3285,7 @@
       <c r="F54" s="75"/>
       <c r="G54" s="75"/>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
@@ -3291,7 +3294,7 @@
       <c r="F55" s="75"/>
       <c r="G55" s="75"/>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -3300,7 +3303,7 @@
       <c r="F56" s="75"/>
       <c r="G56" s="75"/>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -3309,7 +3312,7 @@
       <c r="F57" s="75"/>
       <c r="G57" s="75"/>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -3318,7 +3321,7 @@
       <c r="F58" s="75"/>
       <c r="G58" s="75"/>
     </row>
-    <row r="59" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -3327,7 +3330,7 @@
       <c r="F59" s="75"/>
       <c r="G59" s="75"/>
     </row>
-    <row r="60" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" ht="27" customHeight="1">
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -3336,7 +3339,7 @@
       <c r="F60" s="75"/>
       <c r="G60" s="75"/>
     </row>
-    <row r="61" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" ht="27" customHeight="1">
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -3345,7 +3348,7 @@
       <c r="F61" s="75"/>
       <c r="G61" s="75"/>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -3354,7 +3357,7 @@
       <c r="F62" s="75"/>
       <c r="G62" s="75"/>
     </row>
-    <row r="63" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" ht="27" customHeight="1">
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -3363,7 +3366,7 @@
       <c r="F63" s="75"/>
       <c r="G63" s="75"/>
     </row>
-    <row r="64" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" ht="27" customHeight="1">
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -3372,7 +3375,7 @@
       <c r="F64" s="75"/>
       <c r="G64" s="75"/>
     </row>
-    <row r="65" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" ht="27" customHeight="1">
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
@@ -3381,7 +3384,7 @@
       <c r="F65" s="75"/>
       <c r="G65" s="75"/>
     </row>
-    <row r="66" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" ht="27" customHeight="1">
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -3390,7 +3393,7 @@
       <c r="F66" s="75"/>
       <c r="G66" s="75"/>
     </row>
-    <row r="67" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" ht="27" customHeight="1">
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -3399,7 +3402,7 @@
       <c r="F67" s="75"/>
       <c r="G67" s="75"/>
     </row>
-    <row r="68" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" ht="27" customHeight="1">
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
@@ -3408,7 +3411,7 @@
       <c r="F68" s="75"/>
       <c r="G68" s="75"/>
     </row>
-    <row r="69" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" ht="27" customHeight="1">
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
@@ -3417,7 +3420,7 @@
       <c r="F69" s="75"/>
       <c r="G69" s="75"/>
     </row>
-    <row r="70" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" ht="27" customHeight="1">
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -3426,7 +3429,7 @@
       <c r="F70" s="75"/>
       <c r="G70" s="75"/>
     </row>
-    <row r="71" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" ht="27" customHeight="1">
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -3435,7 +3438,7 @@
       <c r="F71" s="75"/>
       <c r="G71" s="75"/>
     </row>
-    <row r="72" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" ht="27" customHeight="1">
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -3444,7 +3447,7 @@
       <c r="F72" s="75"/>
       <c r="G72" s="75"/>
     </row>
-    <row r="73" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" ht="27" customHeight="1">
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -3453,7 +3456,7 @@
       <c r="F73" s="75"/>
       <c r="G73" s="75"/>
     </row>
-    <row r="74" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" ht="27" customHeight="1">
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -3462,7 +3465,7 @@
       <c r="F74" s="75"/>
       <c r="G74" s="75"/>
     </row>
-    <row r="75" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" ht="27" customHeight="1">
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -3471,7 +3474,7 @@
       <c r="F75" s="75"/>
       <c r="G75" s="75"/>
     </row>
-    <row r="76" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" ht="27" customHeight="1">
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -3480,7 +3483,7 @@
       <c r="F76" s="75"/>
       <c r="G76" s="75"/>
     </row>
-    <row r="77" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" ht="27" customHeight="1">
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -3489,7 +3492,7 @@
       <c r="F77" s="75"/>
       <c r="G77" s="75"/>
     </row>
-    <row r="78" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" ht="27" customHeight="1">
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -3498,7 +3501,7 @@
       <c r="F78" s="75"/>
       <c r="G78" s="75"/>
     </row>
-    <row r="79" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" ht="27" customHeight="1">
       <c r="A79" s="75"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
@@ -3507,7 +3510,7 @@
       <c r="F79" s="75"/>
       <c r="G79" s="75"/>
     </row>
-    <row r="80" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" ht="27" customHeight="1">
       <c r="A80" s="75"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
@@ -3516,7 +3519,7 @@
       <c r="F80" s="75"/>
       <c r="G80" s="75"/>
     </row>
-    <row r="81" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" ht="27" customHeight="1">
       <c r="A81" s="75"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -3525,7 +3528,7 @@
       <c r="F81" s="75"/>
       <c r="G81" s="75"/>
     </row>
-    <row r="82" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" ht="27" customHeight="1">
       <c r="A82" s="75"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -3534,7 +3537,7 @@
       <c r="F82" s="75"/>
       <c r="G82" s="75"/>
     </row>
-    <row r="83" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" ht="27" customHeight="1">
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
@@ -3543,7 +3546,7 @@
       <c r="F83" s="75"/>
       <c r="G83" s="75"/>
     </row>
-    <row r="84" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" ht="27" customHeight="1">
       <c r="A84" s="75"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
@@ -3552,7 +3555,7 @@
       <c r="F84" s="75"/>
       <c r="G84" s="75"/>
     </row>
-    <row r="85" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" ht="27" customHeight="1">
       <c r="A85" s="75"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
@@ -3561,7 +3564,7 @@
       <c r="F85" s="75"/>
       <c r="G85" s="75"/>
     </row>
-    <row r="86" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" ht="27" customHeight="1">
       <c r="A86" s="75"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
@@ -3570,7 +3573,7 @@
       <c r="F86" s="75"/>
       <c r="G86" s="75"/>
     </row>
-    <row r="87" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" ht="27" customHeight="1">
       <c r="A87" s="75"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
@@ -3579,7 +3582,7 @@
       <c r="F87" s="75"/>
       <c r="G87" s="75"/>
     </row>
-    <row r="88" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" ht="27" customHeight="1">
       <c r="A88" s="75"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -3588,7 +3591,7 @@
       <c r="F88" s="75"/>
       <c r="G88" s="75"/>
     </row>
-    <row r="89" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" ht="27" customHeight="1">
       <c r="A89" s="75"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
@@ -3597,7 +3600,7 @@
       <c r="F89" s="75"/>
       <c r="G89" s="75"/>
     </row>
-    <row r="90" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" ht="27" customHeight="1">
       <c r="A90" s="75"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
@@ -3606,7 +3609,7 @@
       <c r="F90" s="75"/>
       <c r="G90" s="75"/>
     </row>
-    <row r="91" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" ht="27" customHeight="1">
       <c r="A91" s="75"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
@@ -3615,7 +3618,7 @@
       <c r="F91" s="75"/>
       <c r="G91" s="75"/>
     </row>
-    <row r="92" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" ht="26.25" customHeight="1">
       <c r="A92" s="75"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
@@ -3624,7 +3627,7 @@
       <c r="F92" s="75"/>
       <c r="G92" s="75"/>
     </row>
-    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" ht="18.75" customHeight="1">
       <c r="A93" s="75"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
@@ -3633,7 +3636,7 @@
       <c r="F93" s="75"/>
       <c r="G93" s="75"/>
     </row>
-    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" ht="18.75" customHeight="1">
       <c r="A94" s="75"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -3642,7 +3645,7 @@
       <c r="F94" s="75"/>
       <c r="G94" s="75"/>
     </row>
-    <row r="95" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" ht="25.5" customHeight="1">
       <c r="A95" s="75"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
@@ -3651,7 +3654,7 @@
       <c r="F95" s="75"/>
       <c r="G95" s="75"/>
     </row>
-    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" ht="18.75" customHeight="1">
       <c r="A96" s="75"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
@@ -3660,7 +3663,7 @@
       <c r="F96" s="75"/>
       <c r="G96" s="75"/>
     </row>
-    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" ht="18.75" customHeight="1">
       <c r="A97" s="75"/>
       <c r="B97" s="75"/>
       <c r="C97" s="75"/>
@@ -3669,7 +3672,7 @@
       <c r="F97" s="75"/>
       <c r="G97" s="75"/>
     </row>
-    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" ht="18.75" customHeight="1">
       <c r="A98" s="75"/>
       <c r="B98" s="75"/>
       <c r="C98" s="75"/>
@@ -3678,7 +3681,7 @@
       <c r="F98" s="75"/>
       <c r="G98" s="75"/>
     </row>
-    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" ht="18.75" customHeight="1">
       <c r="A99" s="75"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -3687,7 +3690,7 @@
       <c r="F99" s="75"/>
       <c r="G99" s="75"/>
     </row>
-    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" ht="18.75" customHeight="1">
       <c r="A100" s="75"/>
       <c r="B100" s="75"/>
       <c r="C100" s="75"/>
@@ -3696,7 +3699,7 @@
       <c r="F100" s="75"/>
       <c r="G100" s="75"/>
     </row>
-    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" ht="18.75" customHeight="1">
       <c r="A101" s="75"/>
       <c r="B101" s="75"/>
       <c r="C101" s="75"/>
@@ -3705,7 +3708,7 @@
       <c r="F101" s="75"/>
       <c r="G101" s="75"/>
     </row>
-    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" ht="18.75" customHeight="1">
       <c r="A102" s="75"/>
       <c r="B102" s="75"/>
       <c r="C102" s="75"/>
@@ -3714,7 +3717,7 @@
       <c r="F102" s="75"/>
       <c r="G102" s="75"/>
     </row>
-    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" ht="18.75" customHeight="1">
       <c r="A103" s="75"/>
       <c r="B103" s="75"/>
       <c r="C103" s="75"/>
@@ -3723,7 +3726,7 @@
       <c r="F103" s="75"/>
       <c r="G103" s="75"/>
     </row>
-    <row r="104" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" ht="26.25" customHeight="1">
       <c r="A104" s="75"/>
       <c r="B104" s="75"/>
       <c r="C104" s="75"/>
@@ -3732,7 +3735,7 @@
       <c r="F104" s="75"/>
       <c r="G104" s="75"/>
     </row>
-    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" ht="18.75" customHeight="1">
       <c r="A105" s="75"/>
       <c r="B105" s="75"/>
       <c r="C105" s="75"/>
@@ -3741,7 +3744,7 @@
       <c r="F105" s="75"/>
       <c r="G105" s="75"/>
     </row>
-    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" ht="18.75" customHeight="1">
       <c r="A106" s="75"/>
       <c r="B106" s="75"/>
       <c r="C106" s="75"/>
@@ -3750,7 +3753,7 @@
       <c r="F106" s="75"/>
       <c r="G106" s="75"/>
     </row>
-    <row r="107" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" ht="28.5" customHeight="1">
       <c r="A107" s="75"/>
       <c r="B107" s="75"/>
       <c r="C107" s="75"/>
@@ -3759,7 +3762,7 @@
       <c r="F107" s="75"/>
       <c r="G107" s="75"/>
     </row>
-    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" ht="18.75" customHeight="1">
       <c r="A108" s="75"/>
       <c r="B108" s="75"/>
       <c r="C108" s="75"/>
@@ -3768,7 +3771,7 @@
       <c r="F108" s="75"/>
       <c r="G108" s="75"/>
     </row>
-    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" ht="18.75" customHeight="1">
       <c r="A109" s="75"/>
       <c r="B109" s="75"/>
       <c r="C109" s="75"/>
@@ -3777,7 +3780,7 @@
       <c r="F109" s="75"/>
       <c r="G109" s="75"/>
     </row>
-    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" ht="18.75" customHeight="1">
       <c r="A110" s="75"/>
       <c r="B110" s="75"/>
       <c r="C110" s="75"/>
@@ -3786,7 +3789,7 @@
       <c r="F110" s="75"/>
       <c r="G110" s="75"/>
     </row>
-    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" ht="18.75" customHeight="1">
       <c r="A111" s="75"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
@@ -3795,7 +3798,7 @@
       <c r="F111" s="75"/>
       <c r="G111" s="75"/>
     </row>
-    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" ht="18.75" customHeight="1">
       <c r="A112" s="75"/>
       <c r="B112" s="75"/>
       <c r="C112" s="75"/>
@@ -3804,7 +3807,7 @@
       <c r="F112" s="75"/>
       <c r="G112" s="75"/>
     </row>
-    <row r="113" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" ht="26.25" customHeight="1">
       <c r="A113" s="75"/>
       <c r="B113" s="75"/>
       <c r="C113" s="75"/>
@@ -3813,7 +3816,7 @@
       <c r="F113" s="75"/>
       <c r="G113" s="75"/>
     </row>
-    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" ht="18.75" customHeight="1">
       <c r="A114" s="75"/>
       <c r="B114" s="75"/>
       <c r="C114" s="75"/>
@@ -3822,7 +3825,7 @@
       <c r="F114" s="75"/>
       <c r="G114" s="75"/>
     </row>
-    <row r="115" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" ht="12.75" customHeight="1">
       <c r="A115" s="75"/>
       <c r="B115" s="75"/>
       <c r="C115" s="75"/>
@@ -3831,7 +3834,7 @@
       <c r="F115" s="75"/>
       <c r="G115" s="75"/>
     </row>
-    <row r="116" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" ht="33" customHeight="1">
       <c r="A116" s="75"/>
       <c r="B116" s="75"/>
       <c r="C116" s="75"/>
@@ -3840,7 +3843,7 @@
       <c r="F116" s="75"/>
       <c r="G116" s="75"/>
     </row>
-    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" ht="18.75" customHeight="1">
       <c r="A117" s="75"/>
       <c r="B117" s="75"/>
       <c r="C117" s="75"/>
@@ -3849,7 +3852,7 @@
       <c r="F117" s="75"/>
       <c r="G117" s="75"/>
     </row>
-    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" ht="18.75" customHeight="1">
       <c r="A118" s="75"/>
       <c r="B118" s="75"/>
       <c r="C118" s="75"/>
@@ -3858,7 +3861,7 @@
       <c r="F118" s="75"/>
       <c r="G118" s="75"/>
     </row>
-    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" ht="18.75" customHeight="1">
       <c r="A119" s="75"/>
       <c r="B119" s="75"/>
       <c r="C119" s="75"/>
@@ -3867,7 +3870,7 @@
       <c r="F119" s="75"/>
       <c r="G119" s="75"/>
     </row>
-    <row r="120" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="18.75">
       <c r="A120" s="70"/>
       <c r="B120" s="69"/>
       <c r="C120" s="74"/>
@@ -3876,7 +3879,7 @@
       <c r="F120" s="72"/>
       <c r="G120" s="71"/>
     </row>
-    <row r="121" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="18.75">
       <c r="A121" s="70"/>
       <c r="B121" s="69"/>
       <c r="C121" s="74"/>
@@ -3885,7 +3888,7 @@
       <c r="F121" s="72"/>
       <c r="G121" s="71"/>
     </row>
-    <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="18.75">
       <c r="A122" s="70"/>
       <c r="B122" s="69"/>
       <c r="C122" s="74"/>
@@ -3894,7 +3897,7 @@
       <c r="F122" s="72"/>
       <c r="G122" s="71"/>
     </row>
-    <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="18.75">
       <c r="A123" s="70"/>
       <c r="B123" s="69"/>
       <c r="C123" s="74"/>
@@ -3919,23 +3922,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="76" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="76" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="3" t="s">
         <v>188</v>
       </c>
@@ -3945,7 +3948,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18">
       <c r="A2" s="3" t="s">
         <v>144</v>
       </c>
@@ -3955,17 +3958,17 @@
       <c r="E2" s="3"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="210" t="s">
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3973,7 +3976,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="53.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="55.5" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -3996,7 +3999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.5" thickBot="1">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -4017,18 +4020,18 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="211" t="s">
+    <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="A7" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="27" customHeight="1" thickBot="1">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -4037,7 +4040,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A9" s="34">
         <v>1</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="34">
         <f t="shared" ref="A10:A34" si="1">A9+1</f>
         <v>2</v>
@@ -4086,7 +4089,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="34">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4112,7 +4115,7 @@
       </c>
       <c r="H11" s="145"/>
     </row>
-    <row r="12" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4137,7 +4140,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="127" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="127" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="122">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4161,7 +4164,7 @@
       <c r="G13" s="126"/>
       <c r="H13" s="145"/>
     </row>
-    <row r="14" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="34">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4186,7 +4189,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="34">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4211,7 +4214,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="86" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" s="86" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="122">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4233,7 +4236,7 @@
       <c r="G16" s="142"/>
       <c r="H16" s="127"/>
     </row>
-    <row r="17" spans="1:8" s="127" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" s="127" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A17" s="34">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4259,7 +4262,7 @@
       </c>
       <c r="H17" s="85"/>
     </row>
-    <row r="18" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A18" s="34">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4285,7 +4288,7 @@
       </c>
       <c r="H18" s="86"/>
     </row>
-    <row r="19" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="145" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A19" s="122">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4307,7 +4310,7 @@
       <c r="G19" s="126"/>
       <c r="H19" s="127"/>
     </row>
-    <row r="20" spans="1:8" s="127" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="127" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A20" s="122">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -4328,7 +4331,7 @@
       </c>
       <c r="G20" s="126"/>
     </row>
-    <row r="21" spans="1:8" s="127" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="127" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="122">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4351,7 +4354,7 @@
       </c>
       <c r="G21" s="135"/>
     </row>
-    <row r="22" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A22" s="34">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4374,7 +4377,7 @@
       </c>
       <c r="G22" s="117"/>
     </row>
-    <row r="23" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A23" s="34">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4383,7 +4386,7 @@
       <c r="F23" s="98"/>
       <c r="G23" s="109"/>
     </row>
-    <row r="24" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="34">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4395,7 +4398,7 @@
       <c r="F24" s="35"/>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A25" s="34">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -4407,7 +4410,7 @@
       <c r="F25" s="35"/>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" spans="1:8" s="87" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" s="87" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A26" s="34">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -4419,7 +4422,7 @@
       <c r="F26" s="35"/>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:8" s="86" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" s="86" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A27" s="34">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -4431,7 +4434,7 @@
       <c r="F27" s="35"/>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A28" s="34">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4443,7 +4446,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A29" s="34">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -4455,7 +4458,7 @@
       <c r="F29" s="35"/>
       <c r="G29" s="27"/>
     </row>
-    <row r="30" spans="1:8" s="86" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" s="86" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A30" s="34">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -4467,7 +4470,7 @@
       <c r="F30" s="35"/>
       <c r="G30" s="26"/>
     </row>
-    <row r="31" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A31" s="34">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -4479,7 +4482,7 @@
       <c r="F31" s="35"/>
       <c r="G31" s="26"/>
     </row>
-    <row r="32" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A32" s="34">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -4492,7 +4495,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="88"/>
     </row>
-    <row r="33" spans="1:7" s="89" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" s="89" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A33" s="34">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -4504,7 +4507,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="26"/>
     </row>
-    <row r="34" spans="1:7" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" s="85" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A34" s="34">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -4516,7 +4519,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="66"/>
     </row>
-    <row r="35" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="27" customHeight="1">
       <c r="A35" s="68"/>
       <c r="B35" s="79"/>
       <c r="C35" s="79"/>
@@ -4525,7 +4528,7 @@
       <c r="F35" s="81"/>
       <c r="G35" s="82"/>
     </row>
-    <row r="36" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="27" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
@@ -4534,7 +4537,7 @@
       <c r="F36" s="75"/>
       <c r="G36" s="75"/>
     </row>
-    <row r="37" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="27" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -4543,7 +4546,7 @@
       <c r="F37" s="75"/>
       <c r="G37" s="75"/>
     </row>
-    <row r="38" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="27" customHeight="1">
       <c r="A38" s="75"/>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -4552,7 +4555,7 @@
       <c r="F38" s="75"/>
       <c r="G38" s="75"/>
     </row>
-    <row r="39" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="27" customHeight="1">
       <c r="A39" s="75"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -4561,7 +4564,7 @@
       <c r="F39" s="75"/>
       <c r="G39" s="75"/>
     </row>
-    <row r="40" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="27" customHeight="1">
       <c r="A40" s="75"/>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
@@ -4570,7 +4573,7 @@
       <c r="F40" s="75"/>
       <c r="G40" s="75"/>
     </row>
-    <row r="41" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="27" customHeight="1">
       <c r="A41" s="75"/>
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
@@ -4579,7 +4582,7 @@
       <c r="F41" s="75"/>
       <c r="G41" s="75"/>
     </row>
-    <row r="42" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="27" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -4588,7 +4591,7 @@
       <c r="F42" s="75"/>
       <c r="G42" s="75"/>
     </row>
-    <row r="43" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="27" customHeight="1">
       <c r="A43" s="75"/>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
@@ -4597,7 +4600,7 @@
       <c r="F43" s="75"/>
       <c r="G43" s="75"/>
     </row>
-    <row r="44" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="27" customHeight="1">
       <c r="A44" s="75"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -4606,7 +4609,7 @@
       <c r="F44" s="75"/>
       <c r="G44" s="75"/>
     </row>
-    <row r="45" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="27" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
@@ -4615,7 +4618,7 @@
       <c r="F45" s="75"/>
       <c r="G45" s="75"/>
     </row>
-    <row r="46" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="27" customHeight="1">
       <c r="A46" s="75"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -4624,7 +4627,7 @@
       <c r="F46" s="75"/>
       <c r="G46" s="75"/>
     </row>
-    <row r="47" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="27" customHeight="1">
       <c r="A47" s="75"/>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
@@ -4633,7 +4636,7 @@
       <c r="F47" s="75"/>
       <c r="G47" s="75"/>
     </row>
-    <row r="48" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="27" customHeight="1">
       <c r="A48" s="75"/>
       <c r="B48" s="75"/>
       <c r="C48" s="75"/>
@@ -4642,7 +4645,7 @@
       <c r="F48" s="75"/>
       <c r="G48" s="75"/>
     </row>
-    <row r="49" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="27" customHeight="1">
       <c r="A49" s="75"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
@@ -4651,7 +4654,7 @@
       <c r="F49" s="75"/>
       <c r="G49" s="75"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A50" s="75"/>
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
@@ -4660,7 +4663,7 @@
       <c r="F50" s="75"/>
       <c r="G50" s="75"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A51" s="75"/>
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
@@ -4669,7 +4672,7 @@
       <c r="F51" s="75"/>
       <c r="G51" s="75"/>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A52" s="75"/>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -4678,7 +4681,7 @@
       <c r="F52" s="75"/>
       <c r="G52" s="75"/>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -4687,7 +4690,7 @@
       <c r="F53" s="75"/>
       <c r="G53" s="75"/>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
@@ -4696,7 +4699,7 @@
       <c r="F54" s="75"/>
       <c r="G54" s="75"/>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
@@ -4705,7 +4708,7 @@
       <c r="F55" s="75"/>
       <c r="G55" s="75"/>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -4714,7 +4717,7 @@
       <c r="F56" s="75"/>
       <c r="G56" s="75"/>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -4723,7 +4726,7 @@
       <c r="F57" s="75"/>
       <c r="G57" s="75"/>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -4732,7 +4735,7 @@
       <c r="F58" s="75"/>
       <c r="G58" s="75"/>
     </row>
-    <row r="59" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -4741,7 +4744,7 @@
       <c r="F59" s="75"/>
       <c r="G59" s="75"/>
     </row>
-    <row r="60" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" ht="27" customHeight="1">
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -4750,7 +4753,7 @@
       <c r="F60" s="75"/>
       <c r="G60" s="75"/>
     </row>
-    <row r="61" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" ht="27" customHeight="1">
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -4759,7 +4762,7 @@
       <c r="F61" s="75"/>
       <c r="G61" s="75"/>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -4768,7 +4771,7 @@
       <c r="F62" s="75"/>
       <c r="G62" s="75"/>
     </row>
-    <row r="63" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" ht="27" customHeight="1">
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -4777,7 +4780,7 @@
       <c r="F63" s="75"/>
       <c r="G63" s="75"/>
     </row>
-    <row r="64" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" ht="27" customHeight="1">
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -4786,7 +4789,7 @@
       <c r="F64" s="75"/>
       <c r="G64" s="75"/>
     </row>
-    <row r="65" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" ht="27" customHeight="1">
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
@@ -4795,7 +4798,7 @@
       <c r="F65" s="75"/>
       <c r="G65" s="75"/>
     </row>
-    <row r="66" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" ht="27" customHeight="1">
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -4804,7 +4807,7 @@
       <c r="F66" s="75"/>
       <c r="G66" s="75"/>
     </row>
-    <row r="67" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" ht="27" customHeight="1">
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -4813,7 +4816,7 @@
       <c r="F67" s="75"/>
       <c r="G67" s="75"/>
     </row>
-    <row r="68" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" ht="27" customHeight="1">
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
@@ -4822,7 +4825,7 @@
       <c r="F68" s="75"/>
       <c r="G68" s="75"/>
     </row>
-    <row r="69" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" ht="27" customHeight="1">
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
@@ -4831,7 +4834,7 @@
       <c r="F69" s="75"/>
       <c r="G69" s="75"/>
     </row>
-    <row r="70" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" ht="27" customHeight="1">
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -4840,7 +4843,7 @@
       <c r="F70" s="75"/>
       <c r="G70" s="75"/>
     </row>
-    <row r="71" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" ht="27" customHeight="1">
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -4849,7 +4852,7 @@
       <c r="F71" s="75"/>
       <c r="G71" s="75"/>
     </row>
-    <row r="72" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" ht="27" customHeight="1">
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -4858,7 +4861,7 @@
       <c r="F72" s="75"/>
       <c r="G72" s="75"/>
     </row>
-    <row r="73" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" ht="27" customHeight="1">
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -4867,7 +4870,7 @@
       <c r="F73" s="75"/>
       <c r="G73" s="75"/>
     </row>
-    <row r="74" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" ht="27" customHeight="1">
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -4876,7 +4879,7 @@
       <c r="F74" s="75"/>
       <c r="G74" s="75"/>
     </row>
-    <row r="75" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" ht="27" customHeight="1">
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -4885,7 +4888,7 @@
       <c r="F75" s="75"/>
       <c r="G75" s="75"/>
     </row>
-    <row r="76" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" ht="27" customHeight="1">
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -4894,7 +4897,7 @@
       <c r="F76" s="75"/>
       <c r="G76" s="75"/>
     </row>
-    <row r="77" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" ht="27" customHeight="1">
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -4903,7 +4906,7 @@
       <c r="F77" s="75"/>
       <c r="G77" s="75"/>
     </row>
-    <row r="78" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" ht="27" customHeight="1">
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -4912,7 +4915,7 @@
       <c r="F78" s="75"/>
       <c r="G78" s="75"/>
     </row>
-    <row r="79" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" ht="27" customHeight="1">
       <c r="A79" s="75"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
@@ -4921,7 +4924,7 @@
       <c r="F79" s="75"/>
       <c r="G79" s="75"/>
     </row>
-    <row r="80" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" ht="27" customHeight="1">
       <c r="A80" s="75"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
@@ -4930,7 +4933,7 @@
       <c r="F80" s="75"/>
       <c r="G80" s="75"/>
     </row>
-    <row r="81" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" ht="27" customHeight="1">
       <c r="A81" s="75"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -4939,7 +4942,7 @@
       <c r="F81" s="75"/>
       <c r="G81" s="75"/>
     </row>
-    <row r="82" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" ht="27" customHeight="1">
       <c r="A82" s="75"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -4948,7 +4951,7 @@
       <c r="F82" s="75"/>
       <c r="G82" s="75"/>
     </row>
-    <row r="83" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" ht="27" customHeight="1">
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
@@ -4957,7 +4960,7 @@
       <c r="F83" s="75"/>
       <c r="G83" s="75"/>
     </row>
-    <row r="84" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" ht="27" customHeight="1">
       <c r="A84" s="75"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
@@ -4966,7 +4969,7 @@
       <c r="F84" s="75"/>
       <c r="G84" s="75"/>
     </row>
-    <row r="85" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" ht="27" customHeight="1">
       <c r="A85" s="75"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
@@ -4975,7 +4978,7 @@
       <c r="F85" s="75"/>
       <c r="G85" s="75"/>
     </row>
-    <row r="86" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" ht="27" customHeight="1">
       <c r="A86" s="75"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
@@ -4984,7 +4987,7 @@
       <c r="F86" s="75"/>
       <c r="G86" s="75"/>
     </row>
-    <row r="87" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" ht="27" customHeight="1">
       <c r="A87" s="75"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
@@ -4993,7 +4996,7 @@
       <c r="F87" s="75"/>
       <c r="G87" s="75"/>
     </row>
-    <row r="88" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" ht="27" customHeight="1">
       <c r="A88" s="75"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -5002,7 +5005,7 @@
       <c r="F88" s="75"/>
       <c r="G88" s="75"/>
     </row>
-    <row r="89" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" ht="27" customHeight="1">
       <c r="A89" s="75"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
@@ -5011,7 +5014,7 @@
       <c r="F89" s="75"/>
       <c r="G89" s="75"/>
     </row>
-    <row r="90" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" ht="27" customHeight="1">
       <c r="A90" s="75"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
@@ -5020,7 +5023,7 @@
       <c r="F90" s="75"/>
       <c r="G90" s="75"/>
     </row>
-    <row r="91" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" ht="27" customHeight="1">
       <c r="A91" s="75"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
@@ -5029,7 +5032,7 @@
       <c r="F91" s="75"/>
       <c r="G91" s="75"/>
     </row>
-    <row r="92" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" ht="26.25" customHeight="1">
       <c r="A92" s="75"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
@@ -5038,7 +5041,7 @@
       <c r="F92" s="75"/>
       <c r="G92" s="75"/>
     </row>
-    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" ht="18.75" customHeight="1">
       <c r="A93" s="75"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
@@ -5047,7 +5050,7 @@
       <c r="F93" s="75"/>
       <c r="G93" s="75"/>
     </row>
-    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" ht="18.75" customHeight="1">
       <c r="A94" s="75"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -5056,7 +5059,7 @@
       <c r="F94" s="75"/>
       <c r="G94" s="75"/>
     </row>
-    <row r="95" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" ht="25.5" customHeight="1">
       <c r="A95" s="75"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
@@ -5065,7 +5068,7 @@
       <c r="F95" s="75"/>
       <c r="G95" s="75"/>
     </row>
-    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" ht="18.75" customHeight="1">
       <c r="A96" s="75"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
@@ -5074,7 +5077,7 @@
       <c r="F96" s="75"/>
       <c r="G96" s="75"/>
     </row>
-    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" ht="18.75" customHeight="1">
       <c r="A97" s="75"/>
       <c r="B97" s="75"/>
       <c r="C97" s="75"/>
@@ -5083,7 +5086,7 @@
       <c r="F97" s="75"/>
       <c r="G97" s="75"/>
     </row>
-    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" ht="18.75" customHeight="1">
       <c r="A98" s="75"/>
       <c r="B98" s="75"/>
       <c r="C98" s="75"/>
@@ -5092,7 +5095,7 @@
       <c r="F98" s="75"/>
       <c r="G98" s="75"/>
     </row>
-    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" ht="18.75" customHeight="1">
       <c r="A99" s="75"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -5101,7 +5104,7 @@
       <c r="F99" s="75"/>
       <c r="G99" s="75"/>
     </row>
-    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" ht="18.75" customHeight="1">
       <c r="A100" s="75"/>
       <c r="B100" s="75"/>
       <c r="C100" s="75"/>
@@ -5110,7 +5113,7 @@
       <c r="F100" s="75"/>
       <c r="G100" s="75"/>
     </row>
-    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" ht="18.75" customHeight="1">
       <c r="A101" s="75"/>
       <c r="B101" s="75"/>
       <c r="C101" s="75"/>
@@ -5119,7 +5122,7 @@
       <c r="F101" s="75"/>
       <c r="G101" s="75"/>
     </row>
-    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" ht="18.75" customHeight="1">
       <c r="A102" s="75"/>
       <c r="B102" s="75"/>
       <c r="C102" s="75"/>
@@ -5128,7 +5131,7 @@
       <c r="F102" s="75"/>
       <c r="G102" s="75"/>
     </row>
-    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" ht="18.75" customHeight="1">
       <c r="A103" s="75"/>
       <c r="B103" s="75"/>
       <c r="C103" s="75"/>
@@ -5137,7 +5140,7 @@
       <c r="F103" s="75"/>
       <c r="G103" s="75"/>
     </row>
-    <row r="104" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" ht="26.25" customHeight="1">
       <c r="A104" s="75"/>
       <c r="B104" s="75"/>
       <c r="C104" s="75"/>
@@ -5146,7 +5149,7 @@
       <c r="F104" s="75"/>
       <c r="G104" s="75"/>
     </row>
-    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" ht="18.75" customHeight="1">
       <c r="A105" s="75"/>
       <c r="B105" s="75"/>
       <c r="C105" s="75"/>
@@ -5155,7 +5158,7 @@
       <c r="F105" s="75"/>
       <c r="G105" s="75"/>
     </row>
-    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" ht="18.75" customHeight="1">
       <c r="A106" s="75"/>
       <c r="B106" s="75"/>
       <c r="C106" s="75"/>
@@ -5164,7 +5167,7 @@
       <c r="F106" s="75"/>
       <c r="G106" s="75"/>
     </row>
-    <row r="107" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" ht="28.5" customHeight="1">
       <c r="A107" s="75"/>
       <c r="B107" s="75"/>
       <c r="C107" s="75"/>
@@ -5173,7 +5176,7 @@
       <c r="F107" s="75"/>
       <c r="G107" s="75"/>
     </row>
-    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" ht="18.75" customHeight="1">
       <c r="A108" s="75"/>
       <c r="B108" s="75"/>
       <c r="C108" s="75"/>
@@ -5182,7 +5185,7 @@
       <c r="F108" s="75"/>
       <c r="G108" s="75"/>
     </row>
-    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" ht="18.75" customHeight="1">
       <c r="A109" s="75"/>
       <c r="B109" s="75"/>
       <c r="C109" s="75"/>
@@ -5191,7 +5194,7 @@
       <c r="F109" s="75"/>
       <c r="G109" s="75"/>
     </row>
-    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" ht="18.75" customHeight="1">
       <c r="A110" s="75"/>
       <c r="B110" s="75"/>
       <c r="C110" s="75"/>
@@ -5200,7 +5203,7 @@
       <c r="F110" s="75"/>
       <c r="G110" s="75"/>
     </row>
-    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" ht="18.75" customHeight="1">
       <c r="A111" s="75"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
@@ -5209,7 +5212,7 @@
       <c r="F111" s="75"/>
       <c r="G111" s="75"/>
     </row>
-    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" ht="18.75" customHeight="1">
       <c r="A112" s="75"/>
       <c r="B112" s="75"/>
       <c r="C112" s="75"/>
@@ -5218,7 +5221,7 @@
       <c r="F112" s="75"/>
       <c r="G112" s="75"/>
     </row>
-    <row r="113" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" ht="26.25" customHeight="1">
       <c r="A113" s="75"/>
       <c r="B113" s="75"/>
       <c r="C113" s="75"/>
@@ -5227,7 +5230,7 @@
       <c r="F113" s="75"/>
       <c r="G113" s="75"/>
     </row>
-    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" ht="18.75" customHeight="1">
       <c r="A114" s="75"/>
       <c r="B114" s="75"/>
       <c r="C114" s="75"/>
@@ -5236,7 +5239,7 @@
       <c r="F114" s="75"/>
       <c r="G114" s="75"/>
     </row>
-    <row r="115" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" ht="12.75" customHeight="1">
       <c r="A115" s="75"/>
       <c r="B115" s="75"/>
       <c r="C115" s="75"/>
@@ -5245,7 +5248,7 @@
       <c r="F115" s="75"/>
       <c r="G115" s="75"/>
     </row>
-    <row r="116" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" ht="33" customHeight="1">
       <c r="A116" s="75"/>
       <c r="B116" s="75"/>
       <c r="C116" s="75"/>
@@ -5254,7 +5257,7 @@
       <c r="F116" s="75"/>
       <c r="G116" s="75"/>
     </row>
-    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" ht="18.75" customHeight="1">
       <c r="A117" s="75"/>
       <c r="B117" s="75"/>
       <c r="C117" s="75"/>
@@ -5263,7 +5266,7 @@
       <c r="F117" s="75"/>
       <c r="G117" s="75"/>
     </row>
-    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" ht="18.75" customHeight="1">
       <c r="A118" s="75"/>
       <c r="B118" s="75"/>
       <c r="C118" s="75"/>
@@ -5272,7 +5275,7 @@
       <c r="F118" s="75"/>
       <c r="G118" s="75"/>
     </row>
-    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" ht="18.75" customHeight="1">
       <c r="A119" s="75"/>
       <c r="B119" s="75"/>
       <c r="C119" s="75"/>
@@ -5281,7 +5284,7 @@
       <c r="F119" s="75"/>
       <c r="G119" s="75"/>
     </row>
-    <row r="120" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="18.75">
       <c r="A120" s="70"/>
       <c r="B120" s="69"/>
       <c r="C120" s="74"/>
@@ -5290,7 +5293,7 @@
       <c r="F120" s="72"/>
       <c r="G120" s="71"/>
     </row>
-    <row r="121" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="18.75">
       <c r="A121" s="70"/>
       <c r="B121" s="69"/>
       <c r="C121" s="74"/>
@@ -5299,7 +5302,7 @@
       <c r="F121" s="72"/>
       <c r="G121" s="71"/>
     </row>
-    <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="18.75">
       <c r="A122" s="70"/>
       <c r="B122" s="69"/>
       <c r="C122" s="74"/>
@@ -5308,7 +5311,7 @@
       <c r="F122" s="72"/>
       <c r="G122" s="71"/>
     </row>
-    <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="18.75">
       <c r="A123" s="70"/>
       <c r="B123" s="69"/>
       <c r="C123" s="74"/>
@@ -5337,24 +5340,24 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="180" customWidth="1"/>
-    <col min="7" max="7" width="49.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="180" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="3" t="s">
         <v>188</v>
       </c>
@@ -5365,7 +5368,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18">
       <c r="A2" s="3" t="s">
         <v>144</v>
       </c>
@@ -5376,18 +5379,18 @@
       <c r="F2" s="11"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="210" t="s">
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5396,7 +5399,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="53.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="55.5" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.5" thickBot="1">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -5446,19 +5449,19 @@
       </c>
       <c r="H6" s="107"/>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="211" t="s">
+    <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1">
+      <c r="A7" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="212"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="213"/>
       <c r="H7" s="164"/>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="27" customHeight="1" thickBot="1">
       <c r="A8" s="164"/>
       <c r="B8" s="164"/>
       <c r="C8" s="164"/>
@@ -5468,7 +5471,7 @@
       <c r="G8" s="166"/>
       <c r="H8" s="164"/>
     </row>
-    <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A9" s="152">
         <v>1</v>
       </c>
@@ -5489,7 +5492,7 @@
       <c r="G9" s="168"/>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A10" s="152">
         <v>2</v>
       </c>
@@ -5512,7 +5515,7 @@
       </c>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A11" s="34">
         <f t="shared" ref="A11:A34" si="0">A10+1</f>
         <v>3</v>
@@ -5539,7 +5542,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5566,7 +5569,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="36" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="36" hidden="1" customHeight="1" thickBot="1">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5589,7 +5592,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5616,7 +5619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5643,7 +5646,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A16" s="152">
         <v>3</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5689,7 +5692,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="174" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="174" customFormat="1" ht="40.15" customHeight="1" thickBot="1">
       <c r="A18" s="153">
         <v>4</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5738,7 +5741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5765,7 +5768,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5792,7 +5795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5805,7 +5808,7 @@
       <c r="G22" s="36"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5818,7 +5821,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5831,7 +5834,7 @@
       <c r="G24" s="36"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5844,7 +5847,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5857,7 +5860,7 @@
       <c r="G26" s="36"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5870,7 +5873,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5883,7 +5886,7 @@
       <c r="G28" s="40"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5896,7 +5899,7 @@
       <c r="G29" s="36"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="1:9" s="6" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" s="6" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5909,7 +5912,7 @@
       <c r="G30" s="36"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A31" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5922,7 +5925,7 @@
       <c r="G31" s="76"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A32" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5936,7 +5939,7 @@
       <c r="H32" s="26"/>
       <c r="I32" s="62"/>
     </row>
-    <row r="33" spans="1:8" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A33" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5949,7 +5952,7 @@
       <c r="G33" s="76"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1">
       <c r="A34" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5962,7 +5965,7 @@
       <c r="G34" s="76"/>
       <c r="H34" s="66"/>
     </row>
-    <row r="35" spans="1:8" s="178" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="178" customFormat="1" ht="40.15" customHeight="1" thickBot="1">
       <c r="A35" s="154">
         <v>5</v>
       </c>
@@ -5987,7 +5990,7 @@
       </c>
       <c r="H35" s="144"/>
     </row>
-    <row r="36" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A36" s="152">
         <v>6</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="174" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="174" customFormat="1" ht="40.15" customHeight="1" thickBot="1">
       <c r="A37" s="153">
         <v>7</v>
       </c>
@@ -6034,7 +6037,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="174" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="174" customFormat="1" ht="40.15" customHeight="1" thickBot="1">
       <c r="A38" s="153">
         <v>8</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="178" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="178" customFormat="1" ht="40.15" customHeight="1" thickBot="1">
       <c r="A39" s="154">
         <v>9</v>
       </c>
@@ -6079,7 +6082,7 @@
       </c>
       <c r="H39" s="144"/>
     </row>
-    <row r="40" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A40" s="152">
         <v>10</v>
       </c>
@@ -6102,7 +6105,7 @@
       </c>
       <c r="H40" s="26"/>
     </row>
-    <row r="41" spans="1:8" s="178" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="178" customFormat="1" ht="40.15" customHeight="1" thickBot="1">
       <c r="A41" s="154">
         <v>11</v>
       </c>
@@ -6127,7 +6130,7 @@
       </c>
       <c r="H41" s="144"/>
     </row>
-    <row r="42" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A42" s="152">
         <v>12</v>
       </c>
@@ -6148,7 +6151,7 @@
       <c r="G42" s="147"/>
       <c r="H42" s="26"/>
     </row>
-    <row r="43" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A43" s="152">
         <v>13</v>
       </c>
@@ -6173,7 +6176,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A44" s="152">
         <v>13</v>
       </c>
@@ -6196,7 +6199,7 @@
       </c>
       <c r="H44" s="26"/>
     </row>
-    <row r="45" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A45" s="152">
         <v>14</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A46" s="152">
         <v>15</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A47" s="152">
         <v>16</v>
       </c>
@@ -6271,7 +6274,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A48" s="152">
         <v>17</v>
       </c>
@@ -6293,10 +6296,10 @@
       </c>
       <c r="G48" s="147"/>
       <c r="H48" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A49" s="152">
         <v>18</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A50" s="152">
         <v>19</v>
       </c>
@@ -6346,7 +6349,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A51" s="152">
         <v>20</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A52" s="152">
         <v>21</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A53" s="152">
         <v>22</v>
       </c>
@@ -6421,7 +6424,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="40.15" customHeight="1" thickBot="1">
       <c r="A54" s="152">
         <v>23</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" ht="27" customHeight="1">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
@@ -6456,7 +6459,7 @@
       <c r="G55" s="75"/>
       <c r="H55" s="75"/>
     </row>
-    <row r="56" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" ht="27" customHeight="1">
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -6466,7 +6469,7 @@
       <c r="G56" s="75"/>
       <c r="H56" s="75"/>
     </row>
-    <row r="57" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="27" customHeight="1">
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -6476,7 +6479,7 @@
       <c r="G57" s="75"/>
       <c r="H57" s="75"/>
     </row>
-    <row r="58" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" ht="27" customHeight="1">
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -6486,7 +6489,7 @@
       <c r="G58" s="75"/>
       <c r="H58" s="75"/>
     </row>
-    <row r="59" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" ht="27" customHeight="1">
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -6496,7 +6499,7 @@
       <c r="G59" s="75"/>
       <c r="H59" s="75"/>
     </row>
-    <row r="60" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="27" customHeight="1">
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -6506,7 +6509,7 @@
       <c r="G60" s="75"/>
       <c r="H60" s="75"/>
     </row>
-    <row r="61" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="27" customHeight="1">
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -6516,7 +6519,7 @@
       <c r="G61" s="75"/>
       <c r="H61" s="75"/>
     </row>
-    <row r="62" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="27" customHeight="1">
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -6526,7 +6529,7 @@
       <c r="G62" s="75"/>
       <c r="H62" s="75"/>
     </row>
-    <row r="63" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="27" customHeight="1">
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -6536,7 +6539,7 @@
       <c r="G63" s="75"/>
       <c r="H63" s="75"/>
     </row>
-    <row r="64" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" ht="27" customHeight="1">
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -6546,7 +6549,7 @@
       <c r="G64" s="75"/>
       <c r="H64" s="75"/>
     </row>
-    <row r="65" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" ht="27" customHeight="1">
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
@@ -6556,7 +6559,7 @@
       <c r="G65" s="75"/>
       <c r="H65" s="75"/>
     </row>
-    <row r="66" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="27" customHeight="1">
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -6566,7 +6569,7 @@
       <c r="G66" s="75"/>
       <c r="H66" s="75"/>
     </row>
-    <row r="67" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="27" customHeight="1">
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -6576,7 +6579,7 @@
       <c r="G67" s="75"/>
       <c r="H67" s="75"/>
     </row>
-    <row r="68" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" ht="27" customHeight="1">
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
@@ -6586,7 +6589,7 @@
       <c r="G68" s="75"/>
       <c r="H68" s="75"/>
     </row>
-    <row r="69" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" ht="27" customHeight="1">
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
@@ -6596,7 +6599,7 @@
       <c r="G69" s="75"/>
       <c r="H69" s="75"/>
     </row>
-    <row r="70" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" ht="27" customHeight="1">
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -6606,7 +6609,7 @@
       <c r="G70" s="75"/>
       <c r="H70" s="75"/>
     </row>
-    <row r="71" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" ht="27" customHeight="1">
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -6616,7 +6619,7 @@
       <c r="G71" s="75"/>
       <c r="H71" s="75"/>
     </row>
-    <row r="72" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" ht="27" customHeight="1">
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -6626,7 +6629,7 @@
       <c r="G72" s="75"/>
       <c r="H72" s="75"/>
     </row>
-    <row r="73" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" ht="27" customHeight="1">
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -6636,7 +6639,7 @@
       <c r="G73" s="75"/>
       <c r="H73" s="75"/>
     </row>
-    <row r="74" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" ht="27" customHeight="1">
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -6646,7 +6649,7 @@
       <c r="G74" s="75"/>
       <c r="H74" s="75"/>
     </row>
-    <row r="75" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="27" customHeight="1">
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -6656,7 +6659,7 @@
       <c r="G75" s="75"/>
       <c r="H75" s="75"/>
     </row>
-    <row r="76" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" ht="27" customHeight="1">
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -6666,7 +6669,7 @@
       <c r="G76" s="75"/>
       <c r="H76" s="75"/>
     </row>
-    <row r="77" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" ht="27" customHeight="1">
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -6676,7 +6679,7 @@
       <c r="G77" s="75"/>
       <c r="H77" s="75"/>
     </row>
-    <row r="78" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" ht="27" customHeight="1">
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -6686,7 +6689,7 @@
       <c r="G78" s="75"/>
       <c r="H78" s="75"/>
     </row>
-    <row r="79" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" ht="27" customHeight="1">
       <c r="A79" s="75"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
@@ -6696,7 +6699,7 @@
       <c r="G79" s="75"/>
       <c r="H79" s="75"/>
     </row>
-    <row r="80" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" ht="27" customHeight="1">
       <c r="A80" s="75"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
@@ -6706,7 +6709,7 @@
       <c r="G80" s="75"/>
       <c r="H80" s="75"/>
     </row>
-    <row r="81" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="27" customHeight="1">
       <c r="A81" s="75"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -6716,7 +6719,7 @@
       <c r="G81" s="75"/>
       <c r="H81" s="75"/>
     </row>
-    <row r="82" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="27" customHeight="1">
       <c r="A82" s="75"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -6726,7 +6729,7 @@
       <c r="G82" s="75"/>
       <c r="H82" s="75"/>
     </row>
-    <row r="83" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" ht="27" customHeight="1">
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
@@ -6736,7 +6739,7 @@
       <c r="G83" s="75"/>
       <c r="H83" s="75"/>
     </row>
-    <row r="84" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="27" customHeight="1">
       <c r="A84" s="75"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
@@ -6746,7 +6749,7 @@
       <c r="G84" s="75"/>
       <c r="H84" s="75"/>
     </row>
-    <row r="85" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="27" customHeight="1">
       <c r="A85" s="75"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
@@ -6756,7 +6759,7 @@
       <c r="G85" s="75"/>
       <c r="H85" s="75"/>
     </row>
-    <row r="86" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="27" customHeight="1">
       <c r="A86" s="75"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
@@ -6766,7 +6769,7 @@
       <c r="G86" s="75"/>
       <c r="H86" s="75"/>
     </row>
-    <row r="87" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="27" customHeight="1">
       <c r="A87" s="75"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
@@ -6776,7 +6779,7 @@
       <c r="G87" s="75"/>
       <c r="H87" s="75"/>
     </row>
-    <row r="88" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="27" customHeight="1">
       <c r="A88" s="75"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -6786,7 +6789,7 @@
       <c r="G88" s="75"/>
       <c r="H88" s="75"/>
     </row>
-    <row r="89" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="27" customHeight="1">
       <c r="A89" s="75"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
@@ -6796,7 +6799,7 @@
       <c r="G89" s="75"/>
       <c r="H89" s="75"/>
     </row>
-    <row r="90" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="27" customHeight="1">
       <c r="A90" s="75"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
@@ -6806,7 +6809,7 @@
       <c r="G90" s="75"/>
       <c r="H90" s="75"/>
     </row>
-    <row r="91" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="26.25" customHeight="1">
       <c r="A91" s="75"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
@@ -6816,7 +6819,7 @@
       <c r="G91" s="75"/>
       <c r="H91" s="75"/>
     </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="18.75" customHeight="1">
       <c r="A92" s="75"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
@@ -6826,7 +6829,7 @@
       <c r="G92" s="75"/>
       <c r="H92" s="75"/>
     </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="18.75" customHeight="1">
       <c r="A93" s="75"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
@@ -6836,7 +6839,7 @@
       <c r="G93" s="75"/>
       <c r="H93" s="75"/>
     </row>
-    <row r="94" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="25.5" customHeight="1">
       <c r="A94" s="75"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -6846,7 +6849,7 @@
       <c r="G94" s="75"/>
       <c r="H94" s="75"/>
     </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="18.75" customHeight="1">
       <c r="A95" s="75"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
@@ -6856,7 +6859,7 @@
       <c r="G95" s="75"/>
       <c r="H95" s="75"/>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="18.75" customHeight="1">
       <c r="A96" s="75"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
@@ -6866,7 +6869,7 @@
       <c r="G96" s="75"/>
       <c r="H96" s="75"/>
     </row>
-    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" ht="18.75" customHeight="1">
       <c r="A97" s="75"/>
       <c r="B97" s="75"/>
       <c r="C97" s="75"/>
@@ -6876,7 +6879,7 @@
       <c r="G97" s="75"/>
       <c r="H97" s="75"/>
     </row>
-    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="18.75" customHeight="1">
       <c r="A98" s="75"/>
       <c r="B98" s="75"/>
       <c r="C98" s="75"/>
@@ -6886,7 +6889,7 @@
       <c r="G98" s="75"/>
       <c r="H98" s="75"/>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" ht="18.75" customHeight="1">
       <c r="A99" s="75"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -6896,7 +6899,7 @@
       <c r="G99" s="75"/>
       <c r="H99" s="75"/>
     </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" ht="18.75" customHeight="1">
       <c r="A100" s="75"/>
       <c r="B100" s="75"/>
       <c r="C100" s="75"/>
@@ -6906,7 +6909,7 @@
       <c r="G100" s="75"/>
       <c r="H100" s="75"/>
     </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" ht="18.75" customHeight="1">
       <c r="A101" s="75"/>
       <c r="B101" s="75"/>
       <c r="C101" s="75"/>
@@ -6916,7 +6919,7 @@
       <c r="G101" s="75"/>
       <c r="H101" s="75"/>
     </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" ht="18.75" customHeight="1">
       <c r="A102" s="75"/>
       <c r="B102" s="75"/>
       <c r="C102" s="75"/>
@@ -6926,7 +6929,7 @@
       <c r="G102" s="75"/>
       <c r="H102" s="75"/>
     </row>
-    <row r="103" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" ht="26.25" customHeight="1">
       <c r="A103" s="75"/>
       <c r="B103" s="75"/>
       <c r="C103" s="75"/>
@@ -6936,7 +6939,7 @@
       <c r="G103" s="75"/>
       <c r="H103" s="75"/>
     </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" ht="18.75" customHeight="1">
       <c r="A104" s="75"/>
       <c r="B104" s="75"/>
       <c r="C104" s="75"/>
@@ -6946,7 +6949,7 @@
       <c r="G104" s="75"/>
       <c r="H104" s="75"/>
     </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" ht="18.75" customHeight="1">
       <c r="A105" s="75"/>
       <c r="B105" s="75"/>
       <c r="C105" s="75"/>
@@ -6956,7 +6959,7 @@
       <c r="G105" s="75"/>
       <c r="H105" s="75"/>
     </row>
-    <row r="106" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" ht="28.5" customHeight="1">
       <c r="A106" s="75"/>
       <c r="B106" s="75"/>
       <c r="C106" s="75"/>
@@ -6966,7 +6969,7 @@
       <c r="G106" s="75"/>
       <c r="H106" s="75"/>
     </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" ht="18.75" customHeight="1">
       <c r="A107" s="75"/>
       <c r="B107" s="75"/>
       <c r="C107" s="75"/>
@@ -6976,7 +6979,7 @@
       <c r="G107" s="75"/>
       <c r="H107" s="75"/>
     </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" ht="18.75" customHeight="1">
       <c r="A108" s="75"/>
       <c r="B108" s="75"/>
       <c r="C108" s="75"/>
@@ -6986,7 +6989,7 @@
       <c r="G108" s="75"/>
       <c r="H108" s="75"/>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" ht="18.75" customHeight="1">
       <c r="A109" s="75"/>
       <c r="B109" s="75"/>
       <c r="C109" s="75"/>
@@ -6996,7 +6999,7 @@
       <c r="G109" s="75"/>
       <c r="H109" s="75"/>
     </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" ht="18.75" customHeight="1">
       <c r="A110" s="75"/>
       <c r="B110" s="75"/>
       <c r="C110" s="75"/>
@@ -7006,7 +7009,7 @@
       <c r="G110" s="75"/>
       <c r="H110" s="75"/>
     </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" ht="18.75" customHeight="1">
       <c r="A111" s="75"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
@@ -7016,7 +7019,7 @@
       <c r="G111" s="75"/>
       <c r="H111" s="75"/>
     </row>
-    <row r="112" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" ht="26.25" customHeight="1">
       <c r="A112" s="75"/>
       <c r="B112" s="75"/>
       <c r="C112" s="75"/>
@@ -7026,7 +7029,7 @@
       <c r="G112" s="75"/>
       <c r="H112" s="75"/>
     </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" ht="18.75" customHeight="1">
       <c r="A113" s="75"/>
       <c r="B113" s="75"/>
       <c r="C113" s="75"/>
@@ -7036,7 +7039,7 @@
       <c r="G113" s="75"/>
       <c r="H113" s="75"/>
     </row>
-    <row r="114" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" ht="12.75" customHeight="1">
       <c r="A114" s="75"/>
       <c r="B114" s="75"/>
       <c r="C114" s="75"/>
@@ -7046,7 +7049,7 @@
       <c r="G114" s="75"/>
       <c r="H114" s="75"/>
     </row>
-    <row r="115" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" ht="33" customHeight="1">
       <c r="A115" s="75"/>
       <c r="B115" s="75"/>
       <c r="C115" s="75"/>
@@ -7056,7 +7059,7 @@
       <c r="G115" s="75"/>
       <c r="H115" s="75"/>
     </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" ht="18.75" customHeight="1">
       <c r="A116" s="75"/>
       <c r="B116" s="75"/>
       <c r="C116" s="75"/>
@@ -7066,7 +7069,7 @@
       <c r="G116" s="75"/>
       <c r="H116" s="75"/>
     </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" ht="18.75" customHeight="1">
       <c r="A117" s="75"/>
       <c r="B117" s="75"/>
       <c r="C117" s="75"/>
@@ -7076,7 +7079,7 @@
       <c r="G117" s="75"/>
       <c r="H117" s="75"/>
     </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" ht="18.75" customHeight="1">
       <c r="A118" s="75"/>
       <c r="B118" s="75"/>
       <c r="C118" s="75"/>
@@ -7086,7 +7089,7 @@
       <c r="G118" s="75"/>
       <c r="H118" s="75"/>
     </row>
-    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="18.75">
       <c r="A119" s="70"/>
       <c r="B119" s="69"/>
       <c r="C119" s="74"/>
@@ -7096,7 +7099,7 @@
       <c r="G119" s="69"/>
       <c r="H119" s="71"/>
     </row>
-    <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="18.75">
       <c r="A120" s="70"/>
       <c r="B120" s="69"/>
       <c r="C120" s="74"/>
@@ -7106,7 +7109,7 @@
       <c r="G120" s="69"/>
       <c r="H120" s="71"/>
     </row>
-    <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="18.75">
       <c r="A121" s="70"/>
       <c r="B121" s="69"/>
       <c r="C121" s="74"/>
@@ -7116,7 +7119,7 @@
       <c r="G121" s="69"/>
       <c r="H121" s="71"/>
     </row>
-    <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="18.75">
       <c r="A122" s="70"/>
       <c r="B122" s="69"/>
       <c r="C122" s="74"/>
@@ -7149,23 +7152,23 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="3" t="s">
         <v>188</v>
       </c>
@@ -7175,7 +7178,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" s="3" t="s">
         <v>144</v>
       </c>
@@ -7185,17 +7188,17 @@
       <c r="E2" s="3"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="210" t="s">
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7203,7 +7206,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="53.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="55.5" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -7247,18 +7250,18 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="211" t="s">
+    <row r="7" spans="1:7" ht="27" customHeight="1" thickBot="1">
+      <c r="A7" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.5" thickBot="1">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -7267,7 +7270,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="19.5" thickBot="1">
       <c r="A9" s="34">
         <v>1</v>
       </c>
@@ -7286,7 +7289,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="19.5" thickBot="1">
       <c r="A10" s="34">
         <f>A9+1</f>
         <v>2</v>
@@ -7310,7 +7313,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="34">
         <f t="shared" ref="A11:A28" si="0">A10+1</f>
         <v>3</v>
@@ -7334,7 +7337,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="19.5" thickBot="1">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7358,7 +7361,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="19.5" thickBot="1">
       <c r="A13" s="34">
         <v>1</v>
       </c>
@@ -7382,7 +7385,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="19.5" thickBot="1">
       <c r="A14" s="34">
         <f>A13+1</f>
         <v>2</v>
@@ -7401,9 +7404,11 @@
         <f t="shared" si="1"/>
         <v>366</v>
       </c>
-      <c r="G14" s="110"/>
-    </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="19.5" thickBot="1">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7424,7 +7429,7 @@
       </c>
       <c r="G15" s="110"/>
     </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="19.5" thickBot="1">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7445,11 +7450,8 @@
         <f t="shared" si="1"/>
         <v>44077</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:7" ht="19.5" thickBot="1">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7474,7 +7476,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="19.5" thickBot="1">
       <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7499,7 +7501,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="19.5" thickBot="1">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7524,7 +7526,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="60" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="60" customFormat="1" ht="19.5" thickBot="1">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7547,7 +7549,7 @@
       </c>
       <c r="G20" s="83"/>
     </row>
-    <row r="21" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="19.5" thickBot="1">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7572,7 +7574,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="19.5" thickBot="1">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7597,7 +7599,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7622,7 +7624,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7645,7 +7647,7 @@
       </c>
       <c r="G24" s="110"/>
     </row>
-    <row r="25" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7670,7 +7672,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7695,7 +7697,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A27" s="138">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7720,7 +7722,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7745,7 +7747,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="27" customHeight="1">
       <c r="A29" s="75"/>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -7754,7 +7756,7 @@
       <c r="F29" s="75"/>
       <c r="G29" s="75"/>
     </row>
-    <row r="30" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="27" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -7763,7 +7765,7 @@
       <c r="F30" s="75"/>
       <c r="G30" s="75"/>
     </row>
-    <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="27" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
@@ -7772,7 +7774,7 @@
       <c r="F31" s="75"/>
       <c r="G31" s="75"/>
     </row>
-    <row r="32" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="27" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
@@ -7781,7 +7783,7 @@
       <c r="F32" s="75"/>
       <c r="G32" s="75"/>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -7790,7 +7792,7 @@
       <c r="F33" s="75"/>
       <c r="G33" s="75"/>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
@@ -7799,7 +7801,7 @@
       <c r="F34" s="75"/>
       <c r="G34" s="75"/>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -7808,7 +7810,7 @@
       <c r="F35" s="75"/>
       <c r="G35" s="75"/>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
@@ -7817,7 +7819,7 @@
       <c r="F36" s="75"/>
       <c r="G36" s="75"/>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -7826,7 +7828,7 @@
       <c r="F37" s="75"/>
       <c r="G37" s="75"/>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A38" s="75"/>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -7835,7 +7837,7 @@
       <c r="F38" s="75"/>
       <c r="G38" s="75"/>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A39" s="75"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -7844,7 +7846,7 @@
       <c r="F39" s="75"/>
       <c r="G39" s="75"/>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A40" s="75"/>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
@@ -7853,7 +7855,7 @@
       <c r="F40" s="75"/>
       <c r="G40" s="75"/>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A41" s="75"/>
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
@@ -7862,7 +7864,7 @@
       <c r="F41" s="75"/>
       <c r="G41" s="75"/>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -7871,7 +7873,7 @@
       <c r="F42" s="75"/>
       <c r="G42" s="75"/>
     </row>
-    <row r="43" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="27" customHeight="1">
       <c r="A43" s="75"/>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
@@ -7880,7 +7882,7 @@
       <c r="F43" s="75"/>
       <c r="G43" s="75"/>
     </row>
-    <row r="44" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="27" customHeight="1">
       <c r="A44" s="75"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -7889,7 +7891,7 @@
       <c r="F44" s="75"/>
       <c r="G44" s="75"/>
     </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
@@ -7898,7 +7900,7 @@
       <c r="F45" s="75"/>
       <c r="G45" s="75"/>
     </row>
-    <row r="46" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="27" customHeight="1">
       <c r="A46" s="75"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -7907,7 +7909,7 @@
       <c r="F46" s="75"/>
       <c r="G46" s="75"/>
     </row>
-    <row r="47" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="27" customHeight="1">
       <c r="A47" s="75"/>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
@@ -7916,7 +7918,7 @@
       <c r="F47" s="75"/>
       <c r="G47" s="75"/>
     </row>
-    <row r="48" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="27" customHeight="1">
       <c r="A48" s="75"/>
       <c r="B48" s="75"/>
       <c r="C48" s="75"/>
@@ -7925,7 +7927,7 @@
       <c r="F48" s="75"/>
       <c r="G48" s="75"/>
     </row>
-    <row r="49" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="27" customHeight="1">
       <c r="A49" s="75"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
@@ -7934,7 +7936,7 @@
       <c r="F49" s="75"/>
       <c r="G49" s="75"/>
     </row>
-    <row r="50" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" ht="27" customHeight="1">
       <c r="A50" s="75"/>
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
@@ -7943,7 +7945,7 @@
       <c r="F50" s="75"/>
       <c r="G50" s="75"/>
     </row>
-    <row r="51" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="27" customHeight="1">
       <c r="A51" s="75"/>
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
@@ -7952,7 +7954,7 @@
       <c r="F51" s="75"/>
       <c r="G51" s="75"/>
     </row>
-    <row r="52" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="27" customHeight="1">
       <c r="A52" s="75"/>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -7961,7 +7963,7 @@
       <c r="F52" s="75"/>
       <c r="G52" s="75"/>
     </row>
-    <row r="53" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="27" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -7970,7 +7972,7 @@
       <c r="F53" s="75"/>
       <c r="G53" s="75"/>
     </row>
-    <row r="54" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="27" customHeight="1">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
@@ -7979,7 +7981,7 @@
       <c r="F54" s="75"/>
       <c r="G54" s="75"/>
     </row>
-    <row r="55" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="27" customHeight="1">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
@@ -7988,7 +7990,7 @@
       <c r="F55" s="75"/>
       <c r="G55" s="75"/>
     </row>
-    <row r="56" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" ht="27" customHeight="1">
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -7997,7 +7999,7 @@
       <c r="F56" s="75"/>
       <c r="G56" s="75"/>
     </row>
-    <row r="57" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="27" customHeight="1">
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -8006,7 +8008,7 @@
       <c r="F57" s="75"/>
       <c r="G57" s="75"/>
     </row>
-    <row r="58" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" ht="27" customHeight="1">
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -8015,7 +8017,7 @@
       <c r="F58" s="75"/>
       <c r="G58" s="75"/>
     </row>
-    <row r="59" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" ht="27" customHeight="1">
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -8024,7 +8026,7 @@
       <c r="F59" s="75"/>
       <c r="G59" s="75"/>
     </row>
-    <row r="60" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" ht="27" customHeight="1">
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -8033,7 +8035,7 @@
       <c r="F60" s="75"/>
       <c r="G60" s="75"/>
     </row>
-    <row r="61" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" ht="27" customHeight="1">
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -8042,7 +8044,7 @@
       <c r="F61" s="75"/>
       <c r="G61" s="75"/>
     </row>
-    <row r="62" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" ht="27" customHeight="1">
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -8051,7 +8053,7 @@
       <c r="F62" s="75"/>
       <c r="G62" s="75"/>
     </row>
-    <row r="63" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" ht="27" customHeight="1">
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -8060,7 +8062,7 @@
       <c r="F63" s="75"/>
       <c r="G63" s="75"/>
     </row>
-    <row r="64" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" ht="27" customHeight="1">
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -8069,7 +8071,7 @@
       <c r="F64" s="75"/>
       <c r="G64" s="75"/>
     </row>
-    <row r="65" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" ht="27" customHeight="1">
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
@@ -8078,7 +8080,7 @@
       <c r="F65" s="75"/>
       <c r="G65" s="75"/>
     </row>
-    <row r="66" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" ht="27" customHeight="1">
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -8087,7 +8089,7 @@
       <c r="F66" s="75"/>
       <c r="G66" s="75"/>
     </row>
-    <row r="67" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" ht="27" customHeight="1">
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -8096,7 +8098,7 @@
       <c r="F67" s="75"/>
       <c r="G67" s="75"/>
     </row>
-    <row r="68" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" ht="27" customHeight="1">
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
@@ -8105,7 +8107,7 @@
       <c r="F68" s="75"/>
       <c r="G68" s="75"/>
     </row>
-    <row r="69" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" ht="27" customHeight="1">
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
@@ -8114,7 +8116,7 @@
       <c r="F69" s="75"/>
       <c r="G69" s="75"/>
     </row>
-    <row r="70" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" ht="27" customHeight="1">
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -8123,7 +8125,7 @@
       <c r="F70" s="75"/>
       <c r="G70" s="75"/>
     </row>
-    <row r="71" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" ht="27" customHeight="1">
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -8132,7 +8134,7 @@
       <c r="F71" s="75"/>
       <c r="G71" s="75"/>
     </row>
-    <row r="72" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" ht="27" customHeight="1">
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -8141,7 +8143,7 @@
       <c r="F72" s="75"/>
       <c r="G72" s="75"/>
     </row>
-    <row r="73" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" ht="27" customHeight="1">
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -8150,7 +8152,7 @@
       <c r="F73" s="75"/>
       <c r="G73" s="75"/>
     </row>
-    <row r="74" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" ht="27" customHeight="1">
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -8159,7 +8161,7 @@
       <c r="F74" s="75"/>
       <c r="G74" s="75"/>
     </row>
-    <row r="75" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" ht="26.25" customHeight="1">
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -8168,7 +8170,7 @@
       <c r="F75" s="75"/>
       <c r="G75" s="75"/>
     </row>
-    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" ht="18.75" customHeight="1">
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -8177,7 +8179,7 @@
       <c r="F76" s="75"/>
       <c r="G76" s="75"/>
     </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" ht="18.75" customHeight="1">
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -8186,7 +8188,7 @@
       <c r="F77" s="75"/>
       <c r="G77" s="75"/>
     </row>
-    <row r="78" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" ht="25.5" customHeight="1">
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -8195,7 +8197,7 @@
       <c r="F78" s="75"/>
       <c r="G78" s="75"/>
     </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" ht="18.75" customHeight="1">
       <c r="A79" s="75"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
@@ -8204,7 +8206,7 @@
       <c r="F79" s="75"/>
       <c r="G79" s="75"/>
     </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" ht="18.75" customHeight="1">
       <c r="A80" s="75"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
@@ -8213,7 +8215,7 @@
       <c r="F80" s="75"/>
       <c r="G80" s="75"/>
     </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" ht="18.75" customHeight="1">
       <c r="A81" s="75"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -8222,7 +8224,7 @@
       <c r="F81" s="75"/>
       <c r="G81" s="75"/>
     </row>
-    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" ht="18.75" customHeight="1">
       <c r="A82" s="75"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -8231,7 +8233,7 @@
       <c r="F82" s="75"/>
       <c r="G82" s="75"/>
     </row>
-    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" ht="18.75" customHeight="1">
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
@@ -8240,7 +8242,7 @@
       <c r="F83" s="75"/>
       <c r="G83" s="75"/>
     </row>
-    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" ht="18.75" customHeight="1">
       <c r="A84" s="75"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
@@ -8249,7 +8251,7 @@
       <c r="F84" s="75"/>
       <c r="G84" s="75"/>
     </row>
-    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" ht="18.75" customHeight="1">
       <c r="A85" s="75"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
@@ -8258,7 +8260,7 @@
       <c r="F85" s="75"/>
       <c r="G85" s="75"/>
     </row>
-    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" ht="18.75" customHeight="1">
       <c r="A86" s="75"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
@@ -8267,7 +8269,7 @@
       <c r="F86" s="75"/>
       <c r="G86" s="75"/>
     </row>
-    <row r="87" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" ht="26.25" customHeight="1">
       <c r="A87" s="75"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
@@ -8276,7 +8278,7 @@
       <c r="F87" s="75"/>
       <c r="G87" s="75"/>
     </row>
-    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" ht="18.75" customHeight="1">
       <c r="A88" s="75"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -8285,7 +8287,7 @@
       <c r="F88" s="75"/>
       <c r="G88" s="75"/>
     </row>
-    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" ht="18.75" customHeight="1">
       <c r="A89" s="75"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
@@ -8294,7 +8296,7 @@
       <c r="F89" s="75"/>
       <c r="G89" s="75"/>
     </row>
-    <row r="90" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" ht="28.5" customHeight="1">
       <c r="A90" s="75"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
@@ -8303,7 +8305,7 @@
       <c r="F90" s="75"/>
       <c r="G90" s="75"/>
     </row>
-    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" ht="18.75" customHeight="1">
       <c r="A91" s="75"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
@@ -8312,7 +8314,7 @@
       <c r="F91" s="75"/>
       <c r="G91" s="75"/>
     </row>
-    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" ht="18.75" customHeight="1">
       <c r="A92" s="75"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
@@ -8321,7 +8323,7 @@
       <c r="F92" s="75"/>
       <c r="G92" s="75"/>
     </row>
-    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" ht="18.75" customHeight="1">
       <c r="A93" s="75"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
@@ -8330,7 +8332,7 @@
       <c r="F93" s="75"/>
       <c r="G93" s="75"/>
     </row>
-    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" ht="18.75" customHeight="1">
       <c r="A94" s="75"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -8339,7 +8341,7 @@
       <c r="F94" s="75"/>
       <c r="G94" s="75"/>
     </row>
-    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" ht="18.75" customHeight="1">
       <c r="A95" s="75"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
@@ -8348,7 +8350,7 @@
       <c r="F95" s="75"/>
       <c r="G95" s="75"/>
     </row>
-    <row r="96" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" ht="26.25" customHeight="1">
       <c r="A96" s="75"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
@@ -8357,7 +8359,7 @@
       <c r="F96" s="75"/>
       <c r="G96" s="75"/>
     </row>
-    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" ht="18.75" customHeight="1">
       <c r="A97" s="75"/>
       <c r="B97" s="75"/>
       <c r="C97" s="75"/>
@@ -8366,7 +8368,7 @@
       <c r="F97" s="75"/>
       <c r="G97" s="75"/>
     </row>
-    <row r="98" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" ht="12.75" customHeight="1">
       <c r="A98" s="75"/>
       <c r="B98" s="75"/>
       <c r="C98" s="75"/>
@@ -8375,7 +8377,7 @@
       <c r="F98" s="75"/>
       <c r="G98" s="75"/>
     </row>
-    <row r="99" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" ht="33" customHeight="1">
       <c r="A99" s="75"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -8384,7 +8386,7 @@
       <c r="F99" s="75"/>
       <c r="G99" s="75"/>
     </row>
-    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" ht="18.75" customHeight="1">
       <c r="A100" s="75"/>
       <c r="B100" s="75"/>
       <c r="C100" s="75"/>
@@ -8393,7 +8395,7 @@
       <c r="F100" s="75"/>
       <c r="G100" s="75"/>
     </row>
-    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" ht="18.75" customHeight="1">
       <c r="A101" s="75"/>
       <c r="B101" s="75"/>
       <c r="C101" s="75"/>
@@ -8402,7 +8404,7 @@
       <c r="F101" s="75"/>
       <c r="G101" s="75"/>
     </row>
-    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" ht="18.75" customHeight="1">
       <c r="A102" s="75"/>
       <c r="B102" s="75"/>
       <c r="C102" s="75"/>
@@ -8411,7 +8413,7 @@
       <c r="F102" s="75"/>
       <c r="G102" s="75"/>
     </row>
-    <row r="103" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="18.75">
       <c r="A103" s="70"/>
       <c r="B103" s="69"/>
       <c r="C103" s="74"/>
@@ -8420,7 +8422,7 @@
       <c r="F103" s="72"/>
       <c r="G103" s="71"/>
     </row>
-    <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="18.75">
       <c r="A104" s="70"/>
       <c r="B104" s="69"/>
       <c r="C104" s="74"/>
@@ -8429,7 +8431,7 @@
       <c r="F104" s="72"/>
       <c r="G104" s="71"/>
     </row>
-    <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="18.75">
       <c r="A105" s="70"/>
       <c r="B105" s="69"/>
       <c r="C105" s="74"/>
@@ -8438,7 +8440,7 @@
       <c r="F105" s="72"/>
       <c r="G105" s="71"/>
     </row>
-    <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="18.75">
       <c r="A106" s="70"/>
       <c r="B106" s="69"/>
       <c r="C106" s="74"/>
@@ -8473,21 +8475,21 @@
       <selection activeCell="B13" sqref="A13:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="49.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="3" t="s">
         <v>188</v>
       </c>
@@ -8499,7 +8501,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18">
       <c r="A2" s="3" t="s">
         <v>144</v>
       </c>
@@ -8511,19 +8513,19 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="210" t="s">
+    <row r="3" spans="1:9" ht="18">
+      <c r="A3" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -8533,7 +8535,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="53.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="55.5" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -8562,7 +8564,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.5" thickBot="1">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -8589,20 +8591,20 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="211" t="s">
+    <row r="7" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A7" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="212"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="213"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A8" s="31"/>
       <c r="B8" s="94" t="s">
         <v>131</v>
@@ -8623,7 +8625,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A9" s="103">
         <v>1</v>
       </c>
@@ -8642,7 +8644,7 @@
       <c r="H9" s="112"/>
       <c r="I9" s="110"/>
     </row>
-    <row r="10" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="34">
         <f>A9+1</f>
         <v>2</v>
@@ -8662,7 +8664,7 @@
       <c r="H10" s="104"/>
       <c r="I10" s="113"/>
     </row>
-    <row r="11" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="34">
         <f t="shared" ref="A11:A12" si="0">A10+1</f>
         <v>3</v>
@@ -8676,7 +8678,7 @@
       <c r="H11" s="104"/>
       <c r="I11" s="113"/>
     </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8689,7 +8691,7 @@
       <c r="H12" s="104"/>
       <c r="I12" s="113"/>
     </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="27" customHeight="1">
       <c r="A13" s="75"/>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -8700,7 +8702,7 @@
       <c r="H13" s="75"/>
       <c r="I13" s="75"/>
     </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="75"/>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -8711,7 +8713,7 @@
       <c r="H14" s="75"/>
       <c r="I14" s="75"/>
     </row>
-    <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="75"/>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -8722,7 +8724,7 @@
       <c r="H15" s="75"/>
       <c r="I15" s="75"/>
     </row>
-    <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="75"/>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -8733,7 +8735,7 @@
       <c r="H16" s="75"/>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="27" customHeight="1">
       <c r="A17" s="75"/>
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
@@ -8744,7 +8746,7 @@
       <c r="H17" s="75"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="27" customHeight="1">
       <c r="A18" s="75"/>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
@@ -8755,7 +8757,7 @@
       <c r="H18" s="75"/>
       <c r="I18" s="75"/>
     </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="A19" s="75"/>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
@@ -8766,7 +8768,7 @@
       <c r="H19" s="75"/>
       <c r="I19" s="75"/>
     </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="27" customHeight="1">
       <c r="A20" s="75"/>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
@@ -8777,7 +8779,7 @@
       <c r="H20" s="75"/>
       <c r="I20" s="75"/>
     </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="27" customHeight="1">
       <c r="A21" s="75"/>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
@@ -8788,7 +8790,7 @@
       <c r="H21" s="75"/>
       <c r="I21" s="75"/>
     </row>
-    <row r="22" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="27" customHeight="1">
       <c r="A22" s="75"/>
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
@@ -8799,7 +8801,7 @@
       <c r="H22" s="75"/>
       <c r="I22" s="75"/>
     </row>
-    <row r="23" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="27" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -8810,7 +8812,7 @@
       <c r="H23" s="75"/>
       <c r="I23" s="75"/>
     </row>
-    <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="27" customHeight="1">
       <c r="A24" s="75"/>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
@@ -8821,7 +8823,7 @@
       <c r="H24" s="75"/>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="27" customHeight="1">
       <c r="A25" s="75"/>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
@@ -8832,7 +8834,7 @@
       <c r="H25" s="75"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="27" customHeight="1">
       <c r="A26" s="75"/>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
@@ -8843,7 +8845,7 @@
       <c r="H26" s="75"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A27" s="75"/>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
@@ -8854,7 +8856,7 @@
       <c r="H27" s="75"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A28" s="75"/>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
@@ -8865,7 +8867,7 @@
       <c r="H28" s="75"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A29" s="75"/>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -8876,7 +8878,7 @@
       <c r="H29" s="75"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -8887,7 +8889,7 @@
       <c r="H30" s="75"/>
       <c r="I30" s="75"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
@@ -8898,7 +8900,7 @@
       <c r="H31" s="75"/>
       <c r="I31" s="75"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
@@ -8909,7 +8911,7 @@
       <c r="H32" s="75"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -8920,7 +8922,7 @@
       <c r="H33" s="75"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
@@ -8931,7 +8933,7 @@
       <c r="H34" s="75"/>
       <c r="I34" s="75"/>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -8942,7 +8944,7 @@
       <c r="H35" s="75"/>
       <c r="I35" s="75"/>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
@@ -8953,7 +8955,7 @@
       <c r="H36" s="75"/>
       <c r="I36" s="75"/>
     </row>
-    <row r="37" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="27" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -8964,7 +8966,7 @@
       <c r="H37" s="75"/>
       <c r="I37" s="75"/>
     </row>
-    <row r="38" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="27" customHeight="1">
       <c r="A38" s="75"/>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -8975,7 +8977,7 @@
       <c r="H38" s="75"/>
       <c r="I38" s="75"/>
     </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A39" s="75"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -8986,7 +8988,7 @@
       <c r="H39" s="75"/>
       <c r="I39" s="75"/>
     </row>
-    <row r="40" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="27" customHeight="1">
       <c r="A40" s="75"/>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
@@ -8997,7 +8999,7 @@
       <c r="H40" s="75"/>
       <c r="I40" s="75"/>
     </row>
-    <row r="41" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="27" customHeight="1">
       <c r="A41" s="75"/>
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
@@ -9008,7 +9010,7 @@
       <c r="H41" s="75"/>
       <c r="I41" s="75"/>
     </row>
-    <row r="42" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="27" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -9019,7 +9021,7 @@
       <c r="H42" s="75"/>
       <c r="I42" s="75"/>
     </row>
-    <row r="43" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="27" customHeight="1">
       <c r="A43" s="75"/>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
@@ -9030,7 +9032,7 @@
       <c r="H43" s="75"/>
       <c r="I43" s="75"/>
     </row>
-    <row r="44" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="27" customHeight="1">
       <c r="A44" s="75"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -9041,7 +9043,7 @@
       <c r="H44" s="75"/>
       <c r="I44" s="75"/>
     </row>
-    <row r="45" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="27" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
@@ -9052,7 +9054,7 @@
       <c r="H45" s="75"/>
       <c r="I45" s="75"/>
     </row>
-    <row r="46" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="27" customHeight="1">
       <c r="A46" s="75"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -9063,7 +9065,7 @@
       <c r="H46" s="75"/>
       <c r="I46" s="75"/>
     </row>
-    <row r="47" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="27" customHeight="1">
       <c r="A47" s="75"/>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
@@ -9074,7 +9076,7 @@
       <c r="H47" s="75"/>
       <c r="I47" s="75"/>
     </row>
-    <row r="48" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="27" customHeight="1">
       <c r="A48" s="75"/>
       <c r="B48" s="75"/>
       <c r="C48" s="75"/>
@@ -9085,7 +9087,7 @@
       <c r="H48" s="75"/>
       <c r="I48" s="75"/>
     </row>
-    <row r="49" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="27" customHeight="1">
       <c r="A49" s="75"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
@@ -9096,7 +9098,7 @@
       <c r="H49" s="75"/>
       <c r="I49" s="75"/>
     </row>
-    <row r="50" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="27" customHeight="1">
       <c r="A50" s="75"/>
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
@@ -9107,7 +9109,7 @@
       <c r="H50" s="75"/>
       <c r="I50" s="75"/>
     </row>
-    <row r="51" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="27" customHeight="1">
       <c r="A51" s="75"/>
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
@@ -9118,7 +9120,7 @@
       <c r="H51" s="75"/>
       <c r="I51" s="75"/>
     </row>
-    <row r="52" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="27" customHeight="1">
       <c r="A52" s="75"/>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -9129,7 +9131,7 @@
       <c r="H52" s="75"/>
       <c r="I52" s="75"/>
     </row>
-    <row r="53" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="27" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -9140,7 +9142,7 @@
       <c r="H53" s="75"/>
       <c r="I53" s="75"/>
     </row>
-    <row r="54" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="27" customHeight="1">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
@@ -9151,7 +9153,7 @@
       <c r="H54" s="75"/>
       <c r="I54" s="75"/>
     </row>
-    <row r="55" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="27" customHeight="1">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
@@ -9162,7 +9164,7 @@
       <c r="H55" s="75"/>
       <c r="I55" s="75"/>
     </row>
-    <row r="56" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="27" customHeight="1">
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -9173,7 +9175,7 @@
       <c r="H56" s="75"/>
       <c r="I56" s="75"/>
     </row>
-    <row r="57" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="27" customHeight="1">
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -9184,7 +9186,7 @@
       <c r="H57" s="75"/>
       <c r="I57" s="75"/>
     </row>
-    <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="27" customHeight="1">
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -9195,7 +9197,7 @@
       <c r="H58" s="75"/>
       <c r="I58" s="75"/>
     </row>
-    <row r="59" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="27" customHeight="1">
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -9206,7 +9208,7 @@
       <c r="H59" s="75"/>
       <c r="I59" s="75"/>
     </row>
-    <row r="60" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="27" customHeight="1">
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -9217,7 +9219,7 @@
       <c r="H60" s="75"/>
       <c r="I60" s="75"/>
     </row>
-    <row r="61" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="27" customHeight="1">
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -9228,7 +9230,7 @@
       <c r="H61" s="75"/>
       <c r="I61" s="75"/>
     </row>
-    <row r="62" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="27" customHeight="1">
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -9239,7 +9241,7 @@
       <c r="H62" s="75"/>
       <c r="I62" s="75"/>
     </row>
-    <row r="63" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="27" customHeight="1">
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -9250,7 +9252,7 @@
       <c r="H63" s="75"/>
       <c r="I63" s="75"/>
     </row>
-    <row r="64" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="27" customHeight="1">
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -9261,7 +9263,7 @@
       <c r="H64" s="75"/>
       <c r="I64" s="75"/>
     </row>
-    <row r="65" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="27" customHeight="1">
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
@@ -9272,7 +9274,7 @@
       <c r="H65" s="75"/>
       <c r="I65" s="75"/>
     </row>
-    <row r="66" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="27" customHeight="1">
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -9283,7 +9285,7 @@
       <c r="H66" s="75"/>
       <c r="I66" s="75"/>
     </row>
-    <row r="67" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="27" customHeight="1">
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -9294,7 +9296,7 @@
       <c r="H67" s="75"/>
       <c r="I67" s="75"/>
     </row>
-    <row r="68" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="27" customHeight="1">
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
@@ -9305,7 +9307,7 @@
       <c r="H68" s="75"/>
       <c r="I68" s="75"/>
     </row>
-    <row r="69" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="26.25" customHeight="1">
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
@@ -9316,7 +9318,7 @@
       <c r="H69" s="75"/>
       <c r="I69" s="75"/>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1">
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -9327,7 +9329,7 @@
       <c r="H70" s="75"/>
       <c r="I70" s="75"/>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1">
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -9338,7 +9340,7 @@
       <c r="H71" s="75"/>
       <c r="I71" s="75"/>
     </row>
-    <row r="72" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="25.5" customHeight="1">
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -9349,7 +9351,7 @@
       <c r="H72" s="75"/>
       <c r="I72" s="75"/>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1">
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -9360,7 +9362,7 @@
       <c r="H73" s="75"/>
       <c r="I73" s="75"/>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1">
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -9371,7 +9373,7 @@
       <c r="H74" s="75"/>
       <c r="I74" s="75"/>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1">
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -9382,7 +9384,7 @@
       <c r="H75" s="75"/>
       <c r="I75" s="75"/>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1">
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -9393,7 +9395,7 @@
       <c r="H76" s="75"/>
       <c r="I76" s="75"/>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1">
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -9404,7 +9406,7 @@
       <c r="H77" s="75"/>
       <c r="I77" s="75"/>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1">
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -9415,7 +9417,7 @@
       <c r="H78" s="75"/>
       <c r="I78" s="75"/>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1">
       <c r="A79" s="75"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
@@ -9426,7 +9428,7 @@
       <c r="H79" s="75"/>
       <c r="I79" s="75"/>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1">
       <c r="A80" s="75"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
@@ -9437,7 +9439,7 @@
       <c r="H80" s="75"/>
       <c r="I80" s="75"/>
     </row>
-    <row r="81" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" ht="26.25" customHeight="1">
       <c r="A81" s="75"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -9448,7 +9450,7 @@
       <c r="H81" s="75"/>
       <c r="I81" s="75"/>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1">
       <c r="A82" s="75"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -9459,7 +9461,7 @@
       <c r="H82" s="75"/>
       <c r="I82" s="75"/>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1">
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
@@ -9470,7 +9472,7 @@
       <c r="H83" s="75"/>
       <c r="I83" s="75"/>
     </row>
-    <row r="84" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" ht="28.5" customHeight="1">
       <c r="A84" s="75"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
@@ -9481,7 +9483,7 @@
       <c r="H84" s="75"/>
       <c r="I84" s="75"/>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1">
       <c r="A85" s="75"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
@@ -9492,7 +9494,7 @@
       <c r="H85" s="75"/>
       <c r="I85" s="75"/>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1">
       <c r="A86" s="75"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
@@ -9503,7 +9505,7 @@
       <c r="H86" s="75"/>
       <c r="I86" s="75"/>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1">
       <c r="A87" s="75"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
@@ -9514,7 +9516,7 @@
       <c r="H87" s="75"/>
       <c r="I87" s="75"/>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1">
       <c r="A88" s="75"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -9525,7 +9527,7 @@
       <c r="H88" s="75"/>
       <c r="I88" s="75"/>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1">
       <c r="A89" s="75"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
@@ -9536,7 +9538,7 @@
       <c r="H89" s="75"/>
       <c r="I89" s="75"/>
     </row>
-    <row r="90" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" ht="26.25" customHeight="1">
       <c r="A90" s="75"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
@@ -9547,7 +9549,7 @@
       <c r="H90" s="75"/>
       <c r="I90" s="75"/>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1">
       <c r="A91" s="75"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
@@ -9558,7 +9560,7 @@
       <c r="H91" s="75"/>
       <c r="I91" s="75"/>
     </row>
-    <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" ht="12.75" customHeight="1">
       <c r="A92" s="75"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
@@ -9569,7 +9571,7 @@
       <c r="H92" s="75"/>
       <c r="I92" s="75"/>
     </row>
-    <row r="93" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" ht="33" customHeight="1">
       <c r="A93" s="75"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
@@ -9580,7 +9582,7 @@
       <c r="H93" s="75"/>
       <c r="I93" s="75"/>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1">
       <c r="A94" s="75"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -9591,7 +9593,7 @@
       <c r="H94" s="75"/>
       <c r="I94" s="75"/>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1">
       <c r="A95" s="75"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
@@ -9602,7 +9604,7 @@
       <c r="H95" s="75"/>
       <c r="I95" s="75"/>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1">
       <c r="A96" s="75"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
@@ -9613,7 +9615,7 @@
       <c r="H96" s="75"/>
       <c r="I96" s="75"/>
     </row>
-    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="18.75">
       <c r="A97" s="70"/>
       <c r="B97" s="69"/>
       <c r="C97" s="74"/>
@@ -9624,7 +9626,7 @@
       <c r="H97" s="69"/>
       <c r="I97" s="71"/>
     </row>
-    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="18.75">
       <c r="A98" s="70"/>
       <c r="B98" s="69"/>
       <c r="C98" s="74"/>
@@ -9635,7 +9637,7 @@
       <c r="H98" s="69"/>
       <c r="I98" s="71"/>
     </row>
-    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="18.75">
       <c r="A99" s="70"/>
       <c r="B99" s="69"/>
       <c r="C99" s="74"/>
@@ -9646,7 +9648,7 @@
       <c r="H99" s="69"/>
       <c r="I99" s="71"/>
     </row>
-    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" ht="18.75">
       <c r="A100" s="70"/>
       <c r="B100" s="69"/>
       <c r="C100" s="74"/>
@@ -9676,21 +9678,21 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="192" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="189" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="192" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="189" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="3" t="s">
         <v>188</v>
       </c>
@@ -9702,7 +9704,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18">
       <c r="A2" s="3" t="s">
         <v>144</v>
       </c>
@@ -9714,19 +9716,19 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="213" t="s">
+    <row r="3" spans="1:9" ht="20.25">
+      <c r="A3" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -9736,7 +9738,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="53.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="55.5" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -9765,7 +9767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.5" thickBot="1">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -9792,20 +9794,20 @@
       </c>
       <c r="I6" s="107"/>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="211" t="s">
+    <row r="7" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A7" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="212"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="213"/>
       <c r="I7" s="164"/>
     </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A8" s="34">
         <v>1</v>
       </c>
@@ -9826,7 +9828,7 @@
       </c>
       <c r="I8" s="116"/>
     </row>
-    <row r="9" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A9" s="122">
         <f>A8+1</f>
         <v>2</v>
@@ -9850,7 +9852,7 @@
       <c r="H9" s="134"/>
       <c r="I9" s="131"/>
     </row>
-    <row r="10" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="122">
         <f t="shared" ref="A10:A33" si="0">A9+1</f>
         <v>3</v>
@@ -9874,7 +9876,7 @@
       <c r="H10" s="134"/>
       <c r="I10" s="132"/>
     </row>
-    <row r="11" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="122">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9898,7 +9900,7 @@
       <c r="H11" s="134"/>
       <c r="I11" s="132"/>
     </row>
-    <row r="12" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="122">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9922,7 +9924,7 @@
       <c r="H12" s="134"/>
       <c r="I12" s="132"/>
     </row>
-    <row r="13" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="122">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9946,7 +9948,7 @@
       <c r="H13" s="134"/>
       <c r="I13" s="132"/>
     </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9966,7 +9968,7 @@
       <c r="H14" s="115"/>
       <c r="I14" s="101"/>
     </row>
-    <row r="15" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="122">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9990,7 +9992,7 @@
       <c r="H15" s="67"/>
       <c r="I15" s="132"/>
     </row>
-    <row r="16" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="122">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10014,7 +10016,7 @@
       <c r="H16" s="67"/>
       <c r="I16" s="132"/>
     </row>
-    <row r="17" spans="1:10" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A17" s="122">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10038,7 +10040,7 @@
       <c r="H17" s="67"/>
       <c r="I17" s="132"/>
     </row>
-    <row r="18" spans="1:10" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" s="174" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A18" s="122">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10062,7 +10064,7 @@
       <c r="H18" s="67"/>
       <c r="I18" s="132"/>
     </row>
-    <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10086,7 +10088,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="66"/>
     </row>
-    <row r="20" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10110,7 +10112,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="66"/>
     </row>
-    <row r="21" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -10134,7 +10136,7 @@
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
     </row>
-    <row r="22" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -10158,7 +10160,7 @@
       <c r="H22" s="36"/>
       <c r="I22" s="96"/>
     </row>
-    <row r="23" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -10182,7 +10184,7 @@
       <c r="H23" s="36"/>
       <c r="I23" s="66"/>
     </row>
-    <row r="24" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -10206,7 +10208,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="97"/>
     </row>
-    <row r="25" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -10230,7 +10232,7 @@
       <c r="H25" s="36"/>
       <c r="I25" s="97"/>
     </row>
-    <row r="26" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -10254,7 +10256,7 @@
       <c r="H26" s="36"/>
       <c r="I26" s="97"/>
     </row>
-    <row r="27" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -10280,7 +10282,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -10306,7 +10308,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -10320,7 +10322,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="97"/>
     </row>
-    <row r="30" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A30" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -10334,7 +10336,7 @@
       <c r="H30" s="36"/>
       <c r="I30" s="66"/>
     </row>
-    <row r="31" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A31" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -10348,7 +10350,7 @@
       <c r="H31" s="76"/>
       <c r="I31" s="66"/>
     </row>
-    <row r="32" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" ht="27" customHeight="1" thickBot="1">
       <c r="A32" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -10363,7 +10365,7 @@
       <c r="I32" s="66"/>
       <c r="J32" s="62"/>
     </row>
-    <row r="33" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A33" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -10377,7 +10379,7 @@
       <c r="H33" s="76"/>
       <c r="I33" s="66"/>
     </row>
-    <row r="34" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="B34" s="159"/>
       <c r="C34" s="66"/>
       <c r="D34" s="66"/>
@@ -10387,7 +10389,7 @@
       <c r="H34" s="76"/>
       <c r="I34" s="66"/>
     </row>
-    <row r="35" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="27" customHeight="1">
       <c r="A35" s="68"/>
       <c r="B35" s="79"/>
       <c r="C35" s="79"/>
@@ -10398,7 +10400,7 @@
       <c r="H35" s="79"/>
       <c r="I35" s="181"/>
     </row>
-    <row r="36" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="27" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
@@ -10409,7 +10411,7 @@
       <c r="H36" s="75"/>
       <c r="I36" s="75"/>
     </row>
-    <row r="37" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="27" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -10420,7 +10422,7 @@
       <c r="H37" s="75"/>
       <c r="I37" s="75"/>
     </row>
-    <row r="38" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="27" customHeight="1">
       <c r="A38" s="75"/>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -10431,7 +10433,7 @@
       <c r="H38" s="75"/>
       <c r="I38" s="75"/>
     </row>
-    <row r="39" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="27" customHeight="1">
       <c r="A39" s="75"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -10442,7 +10444,7 @@
       <c r="H39" s="75"/>
       <c r="I39" s="75"/>
     </row>
-    <row r="40" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="27" customHeight="1">
       <c r="A40" s="75"/>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
@@ -10453,7 +10455,7 @@
       <c r="H40" s="75"/>
       <c r="I40" s="75"/>
     </row>
-    <row r="41" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="27" customHeight="1">
       <c r="A41" s="75"/>
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
@@ -10464,7 +10466,7 @@
       <c r="H41" s="75"/>
       <c r="I41" s="75"/>
     </row>
-    <row r="42" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="27" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -10475,7 +10477,7 @@
       <c r="H42" s="75"/>
       <c r="I42" s="75"/>
     </row>
-    <row r="43" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="27" customHeight="1">
       <c r="A43" s="75"/>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
@@ -10486,7 +10488,7 @@
       <c r="H43" s="75"/>
       <c r="I43" s="75"/>
     </row>
-    <row r="44" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="27" customHeight="1">
       <c r="A44" s="75"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -10497,7 +10499,7 @@
       <c r="H44" s="75"/>
       <c r="I44" s="75"/>
     </row>
-    <row r="45" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="27" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
@@ -10508,7 +10510,7 @@
       <c r="H45" s="75"/>
       <c r="I45" s="75"/>
     </row>
-    <row r="46" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="27" customHeight="1">
       <c r="A46" s="75"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -10519,7 +10521,7 @@
       <c r="H46" s="75"/>
       <c r="I46" s="75"/>
     </row>
-    <row r="47" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="27" customHeight="1">
       <c r="A47" s="75"/>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
@@ -10530,7 +10532,7 @@
       <c r="H47" s="75"/>
       <c r="I47" s="75"/>
     </row>
-    <row r="48" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="27" customHeight="1">
       <c r="A48" s="75"/>
       <c r="B48" s="75"/>
       <c r="C48" s="75"/>
@@ -10541,7 +10543,7 @@
       <c r="H48" s="75"/>
       <c r="I48" s="75"/>
     </row>
-    <row r="49" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="27" customHeight="1">
       <c r="A49" s="75"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
@@ -10552,7 +10554,7 @@
       <c r="H49" s="75"/>
       <c r="I49" s="75"/>
     </row>
-    <row r="50" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="27" customHeight="1">
       <c r="A50" s="75"/>
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
@@ -10563,7 +10565,7 @@
       <c r="H50" s="75"/>
       <c r="I50" s="75"/>
     </row>
-    <row r="51" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="27" customHeight="1">
       <c r="A51" s="75"/>
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
@@ -10574,7 +10576,7 @@
       <c r="H51" s="75"/>
       <c r="I51" s="75"/>
     </row>
-    <row r="52" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="27" customHeight="1">
       <c r="A52" s="75"/>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -10585,7 +10587,7 @@
       <c r="H52" s="75"/>
       <c r="I52" s="75"/>
     </row>
-    <row r="53" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="27" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -10596,7 +10598,7 @@
       <c r="H53" s="75"/>
       <c r="I53" s="75"/>
     </row>
-    <row r="54" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="27" customHeight="1">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
@@ -10607,7 +10609,7 @@
       <c r="H54" s="75"/>
       <c r="I54" s="75"/>
     </row>
-    <row r="55" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="27" customHeight="1">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
@@ -10618,7 +10620,7 @@
       <c r="H55" s="75"/>
       <c r="I55" s="75"/>
     </row>
-    <row r="56" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="27" customHeight="1">
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -10629,7 +10631,7 @@
       <c r="H56" s="75"/>
       <c r="I56" s="75"/>
     </row>
-    <row r="57" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="27" customHeight="1">
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -10640,7 +10642,7 @@
       <c r="H57" s="75"/>
       <c r="I57" s="75"/>
     </row>
-    <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="27" customHeight="1">
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -10651,7 +10653,7 @@
       <c r="H58" s="75"/>
       <c r="I58" s="75"/>
     </row>
-    <row r="59" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="27" customHeight="1">
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -10662,7 +10664,7 @@
       <c r="H59" s="75"/>
       <c r="I59" s="75"/>
     </row>
-    <row r="60" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="27" customHeight="1">
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -10673,7 +10675,7 @@
       <c r="H60" s="75"/>
       <c r="I60" s="75"/>
     </row>
-    <row r="61" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="27" customHeight="1">
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -10684,7 +10686,7 @@
       <c r="H61" s="75"/>
       <c r="I61" s="75"/>
     </row>
-    <row r="62" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="27" customHeight="1">
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -10695,7 +10697,7 @@
       <c r="H62" s="75"/>
       <c r="I62" s="75"/>
     </row>
-    <row r="63" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="27" customHeight="1">
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -10706,7 +10708,7 @@
       <c r="H63" s="75"/>
       <c r="I63" s="75"/>
     </row>
-    <row r="64" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="27" customHeight="1">
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -10717,7 +10719,7 @@
       <c r="H64" s="75"/>
       <c r="I64" s="75"/>
     </row>
-    <row r="65" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="27" customHeight="1">
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
@@ -10728,7 +10730,7 @@
       <c r="H65" s="75"/>
       <c r="I65" s="75"/>
     </row>
-    <row r="66" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="27" customHeight="1">
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -10739,7 +10741,7 @@
       <c r="H66" s="75"/>
       <c r="I66" s="75"/>
     </row>
-    <row r="67" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="27" customHeight="1">
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -10750,7 +10752,7 @@
       <c r="H67" s="75"/>
       <c r="I67" s="75"/>
     </row>
-    <row r="68" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="27" customHeight="1">
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
@@ -10761,7 +10763,7 @@
       <c r="H68" s="75"/>
       <c r="I68" s="75"/>
     </row>
-    <row r="69" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="27" customHeight="1">
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
@@ -10772,7 +10774,7 @@
       <c r="H69" s="75"/>
       <c r="I69" s="75"/>
     </row>
-    <row r="70" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="27" customHeight="1">
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -10783,7 +10785,7 @@
       <c r="H70" s="75"/>
       <c r="I70" s="75"/>
     </row>
-    <row r="71" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="27" customHeight="1">
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -10794,7 +10796,7 @@
       <c r="H71" s="75"/>
       <c r="I71" s="75"/>
     </row>
-    <row r="72" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="27" customHeight="1">
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -10805,7 +10807,7 @@
       <c r="H72" s="75"/>
       <c r="I72" s="75"/>
     </row>
-    <row r="73" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="27" customHeight="1">
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -10816,7 +10818,7 @@
       <c r="H73" s="75"/>
       <c r="I73" s="75"/>
     </row>
-    <row r="74" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="27" customHeight="1">
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -10827,7 +10829,7 @@
       <c r="H74" s="75"/>
       <c r="I74" s="75"/>
     </row>
-    <row r="75" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="27" customHeight="1">
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -10838,7 +10840,7 @@
       <c r="H75" s="75"/>
       <c r="I75" s="75"/>
     </row>
-    <row r="76" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="27" customHeight="1">
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -10849,7 +10851,7 @@
       <c r="H76" s="75"/>
       <c r="I76" s="75"/>
     </row>
-    <row r="77" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="27" customHeight="1">
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -10860,7 +10862,7 @@
       <c r="H77" s="75"/>
       <c r="I77" s="75"/>
     </row>
-    <row r="78" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="27" customHeight="1">
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -10871,7 +10873,7 @@
       <c r="H78" s="75"/>
       <c r="I78" s="75"/>
     </row>
-    <row r="79" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="27" customHeight="1">
       <c r="A79" s="75"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
@@ -10882,7 +10884,7 @@
       <c r="H79" s="75"/>
       <c r="I79" s="75"/>
     </row>
-    <row r="80" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="27" customHeight="1">
       <c r="A80" s="75"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
@@ -10893,7 +10895,7 @@
       <c r="H80" s="75"/>
       <c r="I80" s="75"/>
     </row>
-    <row r="81" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" ht="27" customHeight="1">
       <c r="A81" s="75"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -10904,7 +10906,7 @@
       <c r="H81" s="75"/>
       <c r="I81" s="75"/>
     </row>
-    <row r="82" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" ht="27" customHeight="1">
       <c r="A82" s="75"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -10915,7 +10917,7 @@
       <c r="H82" s="75"/>
       <c r="I82" s="75"/>
     </row>
-    <row r="83" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" ht="27" customHeight="1">
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
@@ -10926,7 +10928,7 @@
       <c r="H83" s="75"/>
       <c r="I83" s="75"/>
     </row>
-    <row r="84" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" ht="27" customHeight="1">
       <c r="A84" s="75"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
@@ -10937,7 +10939,7 @@
       <c r="H84" s="75"/>
       <c r="I84" s="75"/>
     </row>
-    <row r="85" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" ht="27" customHeight="1">
       <c r="A85" s="75"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
@@ -10948,7 +10950,7 @@
       <c r="H85" s="75"/>
       <c r="I85" s="75"/>
     </row>
-    <row r="86" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="27" customHeight="1">
       <c r="A86" s="75"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
@@ -10959,7 +10961,7 @@
       <c r="H86" s="75"/>
       <c r="I86" s="75"/>
     </row>
-    <row r="87" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" ht="27" customHeight="1">
       <c r="A87" s="75"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
@@ -10970,7 +10972,7 @@
       <c r="H87" s="75"/>
       <c r="I87" s="75"/>
     </row>
-    <row r="88" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" ht="27" customHeight="1">
       <c r="A88" s="75"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -10981,7 +10983,7 @@
       <c r="H88" s="75"/>
       <c r="I88" s="75"/>
     </row>
-    <row r="89" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" ht="27" customHeight="1">
       <c r="A89" s="75"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
@@ -10992,7 +10994,7 @@
       <c r="H89" s="75"/>
       <c r="I89" s="75"/>
     </row>
-    <row r="90" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" ht="27" customHeight="1">
       <c r="A90" s="75"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
@@ -11003,7 +11005,7 @@
       <c r="H90" s="75"/>
       <c r="I90" s="75"/>
     </row>
-    <row r="91" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" ht="27" customHeight="1">
       <c r="A91" s="75"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
@@ -11014,7 +11016,7 @@
       <c r="H91" s="75"/>
       <c r="I91" s="75"/>
     </row>
-    <row r="92" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" ht="26.25" customHeight="1">
       <c r="A92" s="75"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
@@ -11025,7 +11027,7 @@
       <c r="H92" s="75"/>
       <c r="I92" s="75"/>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1">
       <c r="A93" s="75"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
@@ -11036,7 +11038,7 @@
       <c r="H93" s="75"/>
       <c r="I93" s="75"/>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1">
       <c r="A94" s="75"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -11047,7 +11049,7 @@
       <c r="H94" s="75"/>
       <c r="I94" s="75"/>
     </row>
-    <row r="95" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" ht="25.5" customHeight="1">
       <c r="A95" s="75"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
@@ -11058,7 +11060,7 @@
       <c r="H95" s="75"/>
       <c r="I95" s="75"/>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1">
       <c r="A96" s="75"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
@@ -11069,7 +11071,7 @@
       <c r="H96" s="75"/>
       <c r="I96" s="75"/>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" ht="18.75" customHeight="1">
       <c r="A97" s="75"/>
       <c r="B97" s="75"/>
       <c r="C97" s="75"/>
@@ -11080,7 +11082,7 @@
       <c r="H97" s="75"/>
       <c r="I97" s="75"/>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1">
       <c r="A98" s="75"/>
       <c r="B98" s="75"/>
       <c r="C98" s="75"/>
@@ -11091,7 +11093,7 @@
       <c r="H98" s="75"/>
       <c r="I98" s="75"/>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1">
       <c r="A99" s="75"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -11102,7 +11104,7 @@
       <c r="H99" s="75"/>
       <c r="I99" s="75"/>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1">
       <c r="A100" s="75"/>
       <c r="B100" s="75"/>
       <c r="C100" s="75"/>
@@ -11113,7 +11115,7 @@
       <c r="H100" s="75"/>
       <c r="I100" s="75"/>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1">
       <c r="A101" s="75"/>
       <c r="B101" s="75"/>
       <c r="C101" s="75"/>
@@ -11124,7 +11126,7 @@
       <c r="H101" s="75"/>
       <c r="I101" s="75"/>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1">
       <c r="A102" s="75"/>
       <c r="B102" s="75"/>
       <c r="C102" s="75"/>
@@ -11135,7 +11137,7 @@
       <c r="H102" s="75"/>
       <c r="I102" s="75"/>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" ht="18.75" customHeight="1">
       <c r="A103" s="75"/>
       <c r="B103" s="75"/>
       <c r="C103" s="75"/>
@@ -11146,7 +11148,7 @@
       <c r="H103" s="75"/>
       <c r="I103" s="75"/>
     </row>
-    <row r="104" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" ht="26.25" customHeight="1">
       <c r="A104" s="75"/>
       <c r="B104" s="75"/>
       <c r="C104" s="75"/>
@@ -11157,7 +11159,7 @@
       <c r="H104" s="75"/>
       <c r="I104" s="75"/>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" ht="18.75" customHeight="1">
       <c r="A105" s="75"/>
       <c r="B105" s="75"/>
       <c r="C105" s="75"/>
@@ -11168,7 +11170,7 @@
       <c r="H105" s="75"/>
       <c r="I105" s="75"/>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" ht="18.75" customHeight="1">
       <c r="A106" s="75"/>
       <c r="B106" s="75"/>
       <c r="C106" s="75"/>
@@ -11179,7 +11181,7 @@
       <c r="H106" s="75"/>
       <c r="I106" s="75"/>
     </row>
-    <row r="107" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" ht="28.5" customHeight="1">
       <c r="A107" s="75"/>
       <c r="B107" s="75"/>
       <c r="C107" s="75"/>
@@ -11190,7 +11192,7 @@
       <c r="H107" s="75"/>
       <c r="I107" s="75"/>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1">
       <c r="A108" s="75"/>
       <c r="B108" s="75"/>
       <c r="C108" s="75"/>
@@ -11201,7 +11203,7 @@
       <c r="H108" s="75"/>
       <c r="I108" s="75"/>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1">
       <c r="A109" s="75"/>
       <c r="B109" s="75"/>
       <c r="C109" s="75"/>
@@ -11212,7 +11214,7 @@
       <c r="H109" s="75"/>
       <c r="I109" s="75"/>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" ht="18.75" customHeight="1">
       <c r="A110" s="75"/>
       <c r="B110" s="75"/>
       <c r="C110" s="75"/>
@@ -11223,7 +11225,7 @@
       <c r="H110" s="75"/>
       <c r="I110" s="75"/>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" ht="18.75" customHeight="1">
       <c r="A111" s="75"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
@@ -11234,7 +11236,7 @@
       <c r="H111" s="75"/>
       <c r="I111" s="75"/>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" ht="18.75" customHeight="1">
       <c r="A112" s="75"/>
       <c r="B112" s="75"/>
       <c r="C112" s="75"/>
@@ -11245,7 +11247,7 @@
       <c r="H112" s="75"/>
       <c r="I112" s="75"/>
     </row>
-    <row r="113" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" ht="26.25" customHeight="1">
       <c r="A113" s="75"/>
       <c r="B113" s="75"/>
       <c r="C113" s="75"/>
@@ -11256,7 +11258,7 @@
       <c r="H113" s="75"/>
       <c r="I113" s="75"/>
     </row>
-    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" ht="18.75" customHeight="1">
       <c r="A114" s="75"/>
       <c r="B114" s="75"/>
       <c r="C114" s="75"/>
@@ -11267,7 +11269,7 @@
       <c r="H114" s="75"/>
       <c r="I114" s="75"/>
     </row>
-    <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" ht="12.75" customHeight="1">
       <c r="A115" s="75"/>
       <c r="B115" s="75"/>
       <c r="C115" s="75"/>
@@ -11278,7 +11280,7 @@
       <c r="H115" s="75"/>
       <c r="I115" s="75"/>
     </row>
-    <row r="116" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" ht="33" customHeight="1">
       <c r="A116" s="75"/>
       <c r="B116" s="75"/>
       <c r="C116" s="75"/>
@@ -11289,7 +11291,7 @@
       <c r="H116" s="75"/>
       <c r="I116" s="75"/>
     </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" ht="18.75" customHeight="1">
       <c r="A117" s="75"/>
       <c r="B117" s="75"/>
       <c r="C117" s="75"/>
@@ -11300,7 +11302,7 @@
       <c r="H117" s="75"/>
       <c r="I117" s="75"/>
     </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" ht="18.75" customHeight="1">
       <c r="A118" s="75"/>
       <c r="B118" s="75"/>
       <c r="C118" s="75"/>
@@ -11311,7 +11313,7 @@
       <c r="H118" s="75"/>
       <c r="I118" s="75"/>
     </row>
-    <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" ht="18.75" customHeight="1">
       <c r="A119" s="75"/>
       <c r="B119" s="75"/>
       <c r="C119" s="75"/>
@@ -11322,7 +11324,7 @@
       <c r="H119" s="75"/>
       <c r="I119" s="75"/>
     </row>
-    <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="18.75">
       <c r="A120" s="70"/>
       <c r="B120" s="69"/>
       <c r="C120" s="74"/>
@@ -11333,7 +11335,7 @@
       <c r="H120" s="69"/>
       <c r="I120" s="71"/>
     </row>
-    <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="18.75">
       <c r="A121" s="70"/>
       <c r="B121" s="69"/>
       <c r="C121" s="74"/>
@@ -11344,7 +11346,7 @@
       <c r="H121" s="69"/>
       <c r="I121" s="71"/>
     </row>
-    <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="18.75">
       <c r="A122" s="70"/>
       <c r="B122" s="69"/>
       <c r="C122" s="74"/>
@@ -11355,7 +11357,7 @@
       <c r="H122" s="69"/>
       <c r="I122" s="71"/>
     </row>
-    <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="18.75">
       <c r="A123" s="70"/>
       <c r="B123" s="69"/>
       <c r="C123" s="74"/>
@@ -11385,21 +11387,21 @@
       <selection activeCell="A12" sqref="A12:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="49.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="3" t="s">
         <v>188</v>
       </c>
@@ -11411,7 +11413,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18">
       <c r="A2" s="3" t="s">
         <v>144</v>
       </c>
@@ -11423,19 +11425,19 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="213" t="s">
+    <row r="3" spans="1:9" ht="20.25">
+      <c r="A3" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -11445,7 +11447,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="53.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="55.5" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -11474,7 +11476,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.5" thickBot="1">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -11501,20 +11503,20 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="211" t="s">
+    <row r="7" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A7" s="212" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="212"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="213"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -11525,7 +11527,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A9" s="34">
         <v>1</v>
       </c>
@@ -11544,7 +11546,7 @@
       </c>
       <c r="I9" s="110"/>
     </row>
-    <row r="10" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="34">
         <f>A9+1</f>
         <v>2</v>
@@ -11558,7 +11560,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="26"/>
     </row>
-    <row r="11" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="34">
         <f t="shared" ref="A11" si="0">A10+1</f>
         <v>3</v>
@@ -11572,7 +11574,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="26"/>
     </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="27" customHeight="1">
       <c r="A12" s="68"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -11583,7 +11585,7 @@
       <c r="H12" s="79"/>
       <c r="I12" s="82"/>
     </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="27" customHeight="1">
       <c r="A13" s="75"/>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -11594,7 +11596,7 @@
       <c r="H13" s="75"/>
       <c r="I13" s="75"/>
     </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="75"/>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -11605,7 +11607,7 @@
       <c r="H14" s="75"/>
       <c r="I14" s="75"/>
     </row>
-    <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="75"/>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -11616,7 +11618,7 @@
       <c r="H15" s="75"/>
       <c r="I15" s="75"/>
     </row>
-    <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="75"/>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -11627,7 +11629,7 @@
       <c r="H16" s="75"/>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="27" customHeight="1">
       <c r="A17" s="75"/>
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
@@ -11638,7 +11640,7 @@
       <c r="H17" s="75"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="27" customHeight="1">
       <c r="A18" s="75"/>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
@@ -11649,7 +11651,7 @@
       <c r="H18" s="75"/>
       <c r="I18" s="75"/>
     </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="A19" s="75"/>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
@@ -11660,7 +11662,7 @@
       <c r="H19" s="75"/>
       <c r="I19" s="75"/>
     </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="27" customHeight="1">
       <c r="A20" s="75"/>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
@@ -11671,7 +11673,7 @@
       <c r="H20" s="75"/>
       <c r="I20" s="75"/>
     </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="27" customHeight="1">
       <c r="A21" s="75"/>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
@@ -11682,7 +11684,7 @@
       <c r="H21" s="75"/>
       <c r="I21" s="75"/>
     </row>
-    <row r="22" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="27" customHeight="1">
       <c r="A22" s="75"/>
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
@@ -11693,7 +11695,7 @@
       <c r="H22" s="75"/>
       <c r="I22" s="75"/>
     </row>
-    <row r="23" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="27" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -11704,7 +11706,7 @@
       <c r="H23" s="75"/>
       <c r="I23" s="75"/>
     </row>
-    <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="27" customHeight="1">
       <c r="A24" s="75"/>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
@@ -11715,7 +11717,7 @@
       <c r="H24" s="75"/>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="27" customHeight="1">
       <c r="A25" s="75"/>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
@@ -11726,7 +11728,7 @@
       <c r="H25" s="75"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="27" customHeight="1">
       <c r="A26" s="75"/>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
@@ -11737,7 +11739,7 @@
       <c r="H26" s="75"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A27" s="75"/>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
@@ -11748,7 +11750,7 @@
       <c r="H27" s="75"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A28" s="75"/>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
@@ -11759,7 +11761,7 @@
       <c r="H28" s="75"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A29" s="75"/>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -11770,7 +11772,7 @@
       <c r="H29" s="75"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -11781,7 +11783,7 @@
       <c r="H30" s="75"/>
       <c r="I30" s="75"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
@@ -11792,7 +11794,7 @@
       <c r="H31" s="75"/>
       <c r="I31" s="75"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
@@ -11803,7 +11805,7 @@
       <c r="H32" s="75"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -11814,7 +11816,7 @@
       <c r="H33" s="75"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
@@ -11825,7 +11827,7 @@
       <c r="H34" s="75"/>
       <c r="I34" s="75"/>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -11836,7 +11838,7 @@
       <c r="H35" s="75"/>
       <c r="I35" s="75"/>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
@@ -11847,7 +11849,7 @@
       <c r="H36" s="75"/>
       <c r="I36" s="75"/>
     </row>
-    <row r="37" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="27" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -11858,7 +11860,7 @@
       <c r="H37" s="75"/>
       <c r="I37" s="75"/>
     </row>
-    <row r="38" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="27" customHeight="1">
       <c r="A38" s="75"/>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -11869,7 +11871,7 @@
       <c r="H38" s="75"/>
       <c r="I38" s="75"/>
     </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A39" s="75"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -11880,7 +11882,7 @@
       <c r="H39" s="75"/>
       <c r="I39" s="75"/>
     </row>
-    <row r="40" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="27" customHeight="1">
       <c r="A40" s="75"/>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
@@ -11891,7 +11893,7 @@
       <c r="H40" s="75"/>
       <c r="I40" s="75"/>
     </row>
-    <row r="41" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="27" customHeight="1">
       <c r="A41" s="75"/>
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
@@ -11902,7 +11904,7 @@
       <c r="H41" s="75"/>
       <c r="I41" s="75"/>
     </row>
-    <row r="42" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="27" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -11913,7 +11915,7 @@
       <c r="H42" s="75"/>
       <c r="I42" s="75"/>
     </row>
-    <row r="43" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="27" customHeight="1">
       <c r="A43" s="75"/>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
@@ -11924,7 +11926,7 @@
       <c r="H43" s="75"/>
       <c r="I43" s="75"/>
     </row>
-    <row r="44" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="27" customHeight="1">
       <c r="A44" s="75"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -11935,7 +11937,7 @@
       <c r="H44" s="75"/>
       <c r="I44" s="75"/>
     </row>
-    <row r="45" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="27" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
@@ -11946,7 +11948,7 @@
       <c r="H45" s="75"/>
       <c r="I45" s="75"/>
     </row>
-    <row r="46" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="27" customHeight="1">
       <c r="A46" s="75"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -11957,7 +11959,7 @@
       <c r="H46" s="75"/>
       <c r="I46" s="75"/>
     </row>
-    <row r="47" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="27" customHeight="1">
       <c r="A47" s="75"/>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
@@ -11968,7 +11970,7 @@
       <c r="H47" s="75"/>
       <c r="I47" s="75"/>
     </row>
-    <row r="48" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="27" customHeight="1">
       <c r="A48" s="75"/>
       <c r="B48" s="75"/>
       <c r="C48" s="75"/>
@@ -11979,7 +11981,7 @@
       <c r="H48" s="75"/>
       <c r="I48" s="75"/>
     </row>
-    <row r="49" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="27" customHeight="1">
       <c r="A49" s="75"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
@@ -11990,7 +11992,7 @@
       <c r="H49" s="75"/>
       <c r="I49" s="75"/>
     </row>
-    <row r="50" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="27" customHeight="1">
       <c r="A50" s="75"/>
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
@@ -12001,7 +12003,7 @@
       <c r="H50" s="75"/>
       <c r="I50" s="75"/>
     </row>
-    <row r="51" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="27" customHeight="1">
       <c r="A51" s="75"/>
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
@@ -12012,7 +12014,7 @@
       <c r="H51" s="75"/>
       <c r="I51" s="75"/>
     </row>
-    <row r="52" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="27" customHeight="1">
       <c r="A52" s="75"/>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -12023,7 +12025,7 @@
       <c r="H52" s="75"/>
       <c r="I52" s="75"/>
     </row>
-    <row r="53" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="27" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -12034,7 +12036,7 @@
       <c r="H53" s="75"/>
       <c r="I53" s="75"/>
     </row>
-    <row r="54" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="27" customHeight="1">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
@@ -12045,7 +12047,7 @@
       <c r="H54" s="75"/>
       <c r="I54" s="75"/>
     </row>
-    <row r="55" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="27" customHeight="1">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
@@ -12056,7 +12058,7 @@
       <c r="H55" s="75"/>
       <c r="I55" s="75"/>
     </row>
-    <row r="56" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="27" customHeight="1">
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -12067,7 +12069,7 @@
       <c r="H56" s="75"/>
       <c r="I56" s="75"/>
     </row>
-    <row r="57" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="27" customHeight="1">
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -12078,7 +12080,7 @@
       <c r="H57" s="75"/>
       <c r="I57" s="75"/>
     </row>
-    <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="27" customHeight="1">
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -12089,7 +12091,7 @@
       <c r="H58" s="75"/>
       <c r="I58" s="75"/>
     </row>
-    <row r="59" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="27" customHeight="1">
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -12100,7 +12102,7 @@
       <c r="H59" s="75"/>
       <c r="I59" s="75"/>
     </row>
-    <row r="60" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="27" customHeight="1">
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -12111,7 +12113,7 @@
       <c r="H60" s="75"/>
       <c r="I60" s="75"/>
     </row>
-    <row r="61" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="27" customHeight="1">
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -12122,7 +12124,7 @@
       <c r="H61" s="75"/>
       <c r="I61" s="75"/>
     </row>
-    <row r="62" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="27" customHeight="1">
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -12133,7 +12135,7 @@
       <c r="H62" s="75"/>
       <c r="I62" s="75"/>
     </row>
-    <row r="63" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="27" customHeight="1">
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -12144,7 +12146,7 @@
       <c r="H63" s="75"/>
       <c r="I63" s="75"/>
     </row>
-    <row r="64" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="27" customHeight="1">
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -12155,7 +12157,7 @@
       <c r="H64" s="75"/>
       <c r="I64" s="75"/>
     </row>
-    <row r="65" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="27" customHeight="1">
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
@@ -12166,7 +12168,7 @@
       <c r="H65" s="75"/>
       <c r="I65" s="75"/>
     </row>
-    <row r="66" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="27" customHeight="1">
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -12177,7 +12179,7 @@
       <c r="H66" s="75"/>
       <c r="I66" s="75"/>
     </row>
-    <row r="67" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="27" customHeight="1">
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -12188,7 +12190,7 @@
       <c r="H67" s="75"/>
       <c r="I67" s="75"/>
     </row>
-    <row r="68" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="27" customHeight="1">
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
@@ -12199,7 +12201,7 @@
       <c r="H68" s="75"/>
       <c r="I68" s="75"/>
     </row>
-    <row r="69" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="26.25" customHeight="1">
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
@@ -12210,7 +12212,7 @@
       <c r="H69" s="75"/>
       <c r="I69" s="75"/>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="18.75" customHeight="1">
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -12221,7 +12223,7 @@
       <c r="H70" s="75"/>
       <c r="I70" s="75"/>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="18.75" customHeight="1">
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -12232,7 +12234,7 @@
       <c r="H71" s="75"/>
       <c r="I71" s="75"/>
     </row>
-    <row r="72" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="25.5" customHeight="1">
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -12243,7 +12245,7 @@
       <c r="H72" s="75"/>
       <c r="I72" s="75"/>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="18.75" customHeight="1">
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -12254,7 +12256,7 @@
       <c r="H73" s="75"/>
       <c r="I73" s="75"/>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="18.75" customHeight="1">
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -12265,7 +12267,7 @@
       <c r="H74" s="75"/>
       <c r="I74" s="75"/>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="18.75" customHeight="1">
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -12276,7 +12278,7 @@
       <c r="H75" s="75"/>
       <c r="I75" s="75"/>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="18.75" customHeight="1">
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -12287,7 +12289,7 @@
       <c r="H76" s="75"/>
       <c r="I76" s="75"/>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="18.75" customHeight="1">
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -12298,7 +12300,7 @@
       <c r="H77" s="75"/>
       <c r="I77" s="75"/>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="18.75" customHeight="1">
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -12309,7 +12311,7 @@
       <c r="H78" s="75"/>
       <c r="I78" s="75"/>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="18.75" customHeight="1">
       <c r="A79" s="75"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
@@ -12320,7 +12322,7 @@
       <c r="H79" s="75"/>
       <c r="I79" s="75"/>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="18.75" customHeight="1">
       <c r="A80" s="75"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
@@ -12331,7 +12333,7 @@
       <c r="H80" s="75"/>
       <c r="I80" s="75"/>
     </row>
-    <row r="81" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" ht="26.25" customHeight="1">
       <c r="A81" s="75"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -12342,7 +12344,7 @@
       <c r="H81" s="75"/>
       <c r="I81" s="75"/>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" ht="18.75" customHeight="1">
       <c r="A82" s="75"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -12353,7 +12355,7 @@
       <c r="H82" s="75"/>
       <c r="I82" s="75"/>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1">
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
@@ -12364,7 +12366,7 @@
       <c r="H83" s="75"/>
       <c r="I83" s="75"/>
     </row>
-    <row r="84" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" ht="28.5" customHeight="1">
       <c r="A84" s="75"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
@@ -12375,7 +12377,7 @@
       <c r="H84" s="75"/>
       <c r="I84" s="75"/>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" ht="18.75" customHeight="1">
       <c r="A85" s="75"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
@@ -12386,7 +12388,7 @@
       <c r="H85" s="75"/>
       <c r="I85" s="75"/>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1">
       <c r="A86" s="75"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
@@ -12397,7 +12399,7 @@
       <c r="H86" s="75"/>
       <c r="I86" s="75"/>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1">
       <c r="A87" s="75"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
@@ -12408,7 +12410,7 @@
       <c r="H87" s="75"/>
       <c r="I87" s="75"/>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1">
       <c r="A88" s="75"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -12419,7 +12421,7 @@
       <c r="H88" s="75"/>
       <c r="I88" s="75"/>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1">
       <c r="A89" s="75"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
@@ -12430,7 +12432,7 @@
       <c r="H89" s="75"/>
       <c r="I89" s="75"/>
     </row>
-    <row r="90" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" ht="26.25" customHeight="1">
       <c r="A90" s="75"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
@@ -12441,7 +12443,7 @@
       <c r="H90" s="75"/>
       <c r="I90" s="75"/>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1">
       <c r="A91" s="75"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
@@ -12452,7 +12454,7 @@
       <c r="H91" s="75"/>
       <c r="I91" s="75"/>
     </row>
-    <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" ht="12.75" customHeight="1">
       <c r="A92" s="75"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
@@ -12463,7 +12465,7 @@
       <c r="H92" s="75"/>
       <c r="I92" s="75"/>
     </row>
-    <row r="93" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" ht="33" customHeight="1">
       <c r="A93" s="75"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
@@ -12474,7 +12476,7 @@
       <c r="H93" s="75"/>
       <c r="I93" s="75"/>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" ht="18.75" customHeight="1">
       <c r="A94" s="75"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -12485,7 +12487,7 @@
       <c r="H94" s="75"/>
       <c r="I94" s="75"/>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1">
       <c r="A95" s="75"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
@@ -12496,7 +12498,7 @@
       <c r="H95" s="75"/>
       <c r="I95" s="75"/>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1">
       <c r="A96" s="75"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
@@ -12507,7 +12509,7 @@
       <c r="H96" s="75"/>
       <c r="I96" s="75"/>
     </row>
-    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="18.75">
       <c r="A97" s="70"/>
       <c r="B97" s="69"/>
       <c r="C97" s="74"/>
@@ -12518,7 +12520,7 @@
       <c r="H97" s="69"/>
       <c r="I97" s="71"/>
     </row>
-    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="18.75">
       <c r="A98" s="70"/>
       <c r="B98" s="69"/>
       <c r="C98" s="74"/>
@@ -12529,7 +12531,7 @@
       <c r="H98" s="69"/>
       <c r="I98" s="71"/>
     </row>
-    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="18.75">
       <c r="A99" s="70"/>
       <c r="B99" s="69"/>
       <c r="C99" s="74"/>
@@ -12540,7 +12542,7 @@
       <c r="H99" s="69"/>
       <c r="I99" s="71"/>
     </row>
-    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" ht="18.75">
       <c r="A100" s="70"/>
       <c r="B100" s="69"/>
       <c r="C100" s="74"/>
@@ -12569,25 +12571,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="57" zoomScaleNormal="100" zoomScaleSheetLayoutView="57" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="57" zoomScaleNormal="100" zoomScaleSheetLayoutView="57" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="49.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="3" t="s">
         <v>188</v>
       </c>
@@ -12599,7 +12601,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18">
       <c r="A2" s="3" t="s">
         <v>144</v>
       </c>
@@ -12611,19 +12613,19 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="213" t="s">
+    <row r="3" spans="1:9" ht="20.25">
+      <c r="A3" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -12633,7 +12635,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="53.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="55.5" thickTop="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -12662,7 +12664,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.5" thickBot="1">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -12689,20 +12691,20 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="211" t="s">
+    <row r="7" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A7" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="212"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="213"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -12713,7 +12715,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="26"/>
     </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A9" s="34">
         <v>1</v>
       </c>
@@ -12732,7 +12734,7 @@
       <c r="H9" s="112"/>
       <c r="I9" s="113"/>
     </row>
-    <row r="10" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="34">
         <f>A9+1</f>
         <v>2</v>
@@ -12752,7 +12754,7 @@
       <c r="H10" s="112"/>
       <c r="I10" s="113"/>
     </row>
-    <row r="11" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="34">
         <f t="shared" ref="A11:A24" si="0">A10+1</f>
         <v>3</v>
@@ -12772,7 +12774,7 @@
       <c r="H11" s="112"/>
       <c r="I11" s="113"/>
     </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12792,7 +12794,7 @@
       <c r="H12" s="112"/>
       <c r="I12" s="113"/>
     </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12812,7 +12814,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12834,7 +12836,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12856,7 +12858,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12881,7 +12883,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="26"/>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12889,7 +12891,7 @@
       <c r="B17" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="214" t="s">
+      <c r="C17" s="209" t="s">
         <v>208</v>
       </c>
       <c r="D17" s="66">
@@ -12906,7 +12908,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="26"/>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12931,7 +12933,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="26"/>
     </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12939,7 +12941,7 @@
       <c r="B19" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>208</v>
       </c>
       <c r="D19" s="66">
@@ -12956,7 +12958,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12981,7 +12983,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="26"/>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -13006,7 +13008,7 @@
       <c r="H21" s="66"/>
       <c r="I21" s="26"/>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -13031,7 +13033,7 @@
       <c r="H22" s="36"/>
       <c r="I22" s="26"/>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -13056,7 +13058,7 @@
       <c r="H23" s="36"/>
       <c r="I23" s="26"/>
     </row>
-    <row r="24" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13070,7 +13072,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="27" customHeight="1">
       <c r="A25" s="68"/>
       <c r="B25" s="79"/>
       <c r="C25" s="79"/>
@@ -13081,7 +13083,7 @@
       <c r="H25" s="79"/>
       <c r="I25" s="82"/>
     </row>
-    <row r="26" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="27" customHeight="1">
       <c r="A26" s="75"/>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
@@ -13092,7 +13094,7 @@
       <c r="H26" s="75"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="27" customHeight="1">
       <c r="A27" s="75"/>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
@@ -13103,7 +13105,7 @@
       <c r="H27" s="75"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="27" customHeight="1">
       <c r="A28" s="75"/>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
@@ -13114,7 +13116,7 @@
       <c r="H28" s="75"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="27" customHeight="1">
       <c r="A29" s="75"/>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -13125,7 +13127,7 @@
       <c r="H29" s="75"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="27" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -13136,7 +13138,7 @@
       <c r="H30" s="75"/>
       <c r="I30" s="75"/>
     </row>
-    <row r="31" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="27" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
@@ -13147,7 +13149,7 @@
       <c r="H31" s="75"/>
       <c r="I31" s="75"/>
     </row>
-    <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="27" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
@@ -13158,7 +13160,7 @@
       <c r="H32" s="75"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="27" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -13169,7 +13171,7 @@
       <c r="H33" s="75"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="27" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
@@ -13180,7 +13182,7 @@
       <c r="H34" s="75"/>
       <c r="I34" s="75"/>
     </row>
-    <row r="35" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="27" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -13191,7 +13193,7 @@
       <c r="H35" s="75"/>
       <c r="I35" s="75"/>
     </row>
-    <row r="36" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="27" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
@@ -13202,7 +13204,7 @@
       <c r="H36" s="75"/>
       <c r="I36" s="75"/>
     </row>
-    <row r="37" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="27" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -13213,7 +13215,7 @@
       <c r="H37" s="75"/>
       <c r="I37" s="75"/>
     </row>
-    <row r="38" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="27" customHeight="1">
       <c r="A38" s="75"/>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -13224,7 +13226,7 @@
       <c r="H38" s="75"/>
       <c r="I38" s="75"/>
     </row>
-    <row r="39" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="27" customHeight="1">
       <c r="A39" s="75"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -13235,7 +13237,7 @@
       <c r="H39" s="75"/>
       <c r="I39" s="75"/>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A40" s="75"/>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
@@ -13246,7 +13248,7 @@
       <c r="H40" s="75"/>
       <c r="I40" s="75"/>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A41" s="75"/>
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
@@ -13257,7 +13259,7 @@
       <c r="H41" s="75"/>
       <c r="I41" s="75"/>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -13268,7 +13270,7 @@
       <c r="H42" s="75"/>
       <c r="I42" s="75"/>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A43" s="75"/>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
@@ -13279,7 +13281,7 @@
       <c r="H43" s="75"/>
       <c r="I43" s="75"/>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A44" s="75"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -13290,7 +13292,7 @@
       <c r="H44" s="75"/>
       <c r="I44" s="75"/>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
@@ -13301,7 +13303,7 @@
       <c r="H45" s="75"/>
       <c r="I45" s="75"/>
     </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A46" s="75"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -13312,7 +13314,7 @@
       <c r="H46" s="75"/>
       <c r="I46" s="75"/>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A47" s="75"/>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
@@ -13323,7 +13325,7 @@
       <c r="H47" s="75"/>
       <c r="I47" s="75"/>
     </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A48" s="75"/>
       <c r="B48" s="75"/>
       <c r="C48" s="75"/>
@@ -13334,7 +13336,7 @@
       <c r="H48" s="75"/>
       <c r="I48" s="75"/>
     </row>
-    <row r="49" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A49" s="75"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
@@ -13345,7 +13347,7 @@
       <c r="H49" s="75"/>
       <c r="I49" s="75"/>
     </row>
-    <row r="50" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="27" customHeight="1">
       <c r="A50" s="75"/>
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
@@ -13356,7 +13358,7 @@
       <c r="H50" s="75"/>
       <c r="I50" s="75"/>
     </row>
-    <row r="51" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="27" customHeight="1">
       <c r="A51" s="75"/>
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
@@ -13367,7 +13369,7 @@
       <c r="H51" s="75"/>
       <c r="I51" s="75"/>
     </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" s="2" customFormat="1" ht="27" customHeight="1">
       <c r="A52" s="75"/>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -13378,7 +13380,7 @@
       <c r="H52" s="75"/>
       <c r="I52" s="75"/>
     </row>
-    <row r="53" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="27" customHeight="1">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -13389,7 +13391,7 @@
       <c r="H53" s="75"/>
       <c r="I53" s="75"/>
     </row>
-    <row r="54" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="27" customHeight="1">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
@@ -13400,7 +13402,7 @@
       <c r="H54" s="75"/>
       <c r="I54" s="75"/>
     </row>
-    <row r="55" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="27" customHeight="1">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
@@ -13411,7 +13413,7 @@
       <c r="H55" s="75"/>
       <c r="I55" s="75"/>
     </row>
-    <row r="56" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="27" customHeight="1">
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -13422,7 +13424,7 @@
       <c r="H56" s="75"/>
       <c r="I56" s="75"/>
     </row>
-    <row r="57" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="27" customHeight="1">
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -13433,7 +13435,7 @@
       <c r="H57" s="75"/>
       <c r="I57" s="75"/>
     </row>
-    <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="27" customHeight="1">
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -13444,7 +13446,7 @@
       <c r="H58" s="75"/>
       <c r="I58" s="75"/>
     </row>
-    <row r="59" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="27" customHeight="1">
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -13455,7 +13457,7 @@
       <c r="H59" s="75"/>
       <c r="I59" s="75"/>
     </row>
-    <row r="60" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="27" customHeight="1">
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -13466,7 +13468,7 @@
       <c r="H60" s="75"/>
       <c r="I60" s="75"/>
     </row>
-    <row r="61" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="27" customHeight="1">
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -13477,7 +13479,7 @@
       <c r="H61" s="75"/>
       <c r="I61" s="75"/>
     </row>
-    <row r="62" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="27" customHeight="1">
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -13488,7 +13490,7 @@
       <c r="H62" s="75"/>
       <c r="I62" s="75"/>
     </row>
-    <row r="63" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="27" customHeight="1">
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -13499,7 +13501,7 @@
       <c r="H63" s="75"/>
       <c r="I63" s="75"/>
     </row>
-    <row r="64" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="27" customHeight="1">
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -13510,7 +13512,7 @@
       <c r="H64" s="75"/>
       <c r="I64" s="75"/>
     </row>
-    <row r="65" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="27" customHeight="1">
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
@@ -13521,7 +13523,7 @@
       <c r="H65" s="75"/>
       <c r="I65" s="75"/>
     </row>
-    <row r="66" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="27" customHeight="1">
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -13532,7 +13534,7 @@
       <c r="H66" s="75"/>
       <c r="I66" s="75"/>
     </row>
-    <row r="67" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="27" customHeight="1">
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -13543,7 +13545,7 @@
       <c r="H67" s="75"/>
       <c r="I67" s="75"/>
     </row>
-    <row r="68" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="27" customHeight="1">
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
@@ -13554,7 +13556,7 @@
       <c r="H68" s="75"/>
       <c r="I68" s="75"/>
     </row>
-    <row r="69" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="27" customHeight="1">
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
@@ -13565,7 +13567,7 @@
       <c r="H69" s="75"/>
       <c r="I69" s="75"/>
     </row>
-    <row r="70" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="27" customHeight="1">
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -13576,7 +13578,7 @@
       <c r="H70" s="75"/>
       <c r="I70" s="75"/>
     </row>
-    <row r="71" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="27" customHeight="1">
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -13587,7 +13589,7 @@
       <c r="H71" s="75"/>
       <c r="I71" s="75"/>
     </row>
-    <row r="72" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="27" customHeight="1">
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -13598,7 +13600,7 @@
       <c r="H72" s="75"/>
       <c r="I72" s="75"/>
     </row>
-    <row r="73" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="27" customHeight="1">
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -13609,7 +13611,7 @@
       <c r="H73" s="75"/>
       <c r="I73" s="75"/>
     </row>
-    <row r="74" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="27" customHeight="1">
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -13620,7 +13622,7 @@
       <c r="H74" s="75"/>
       <c r="I74" s="75"/>
     </row>
-    <row r="75" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="27" customHeight="1">
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -13631,7 +13633,7 @@
       <c r="H75" s="75"/>
       <c r="I75" s="75"/>
     </row>
-    <row r="76" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="27" customHeight="1">
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -13642,7 +13644,7 @@
       <c r="H76" s="75"/>
       <c r="I76" s="75"/>
     </row>
-    <row r="77" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="27" customHeight="1">
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -13653,7 +13655,7 @@
       <c r="H77" s="75"/>
       <c r="I77" s="75"/>
     </row>
-    <row r="78" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="27" customHeight="1">
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -13664,7 +13666,7 @@
       <c r="H78" s="75"/>
       <c r="I78" s="75"/>
     </row>
-    <row r="79" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="27" customHeight="1">
       <c r="A79" s="75"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
@@ -13675,7 +13677,7 @@
       <c r="H79" s="75"/>
       <c r="I79" s="75"/>
     </row>
-    <row r="80" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="27" customHeight="1">
       <c r="A80" s="75"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
@@ -13686,7 +13688,7 @@
       <c r="H80" s="75"/>
       <c r="I80" s="75"/>
     </row>
-    <row r="81" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" ht="27" customHeight="1">
       <c r="A81" s="75"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -13697,7 +13699,7 @@
       <c r="H81" s="75"/>
       <c r="I81" s="75"/>
     </row>
-    <row r="82" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" ht="26.25" customHeight="1">
       <c r="A82" s="75"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -13708,7 +13710,7 @@
       <c r="H82" s="75"/>
       <c r="I82" s="75"/>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" ht="18.75" customHeight="1">
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
@@ -13719,7 +13721,7 @@
       <c r="H83" s="75"/>
       <c r="I83" s="75"/>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" ht="18.75" customHeight="1">
       <c r="A84" s="75"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
@@ -13730,7 +13732,7 @@
       <c r="H84" s="75"/>
       <c r="I84" s="75"/>
     </row>
-    <row r="85" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" ht="25.5" customHeight="1">
       <c r="A85" s="75"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
@@ -13741,7 +13743,7 @@
       <c r="H85" s="75"/>
       <c r="I85" s="75"/>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="18.75" customHeight="1">
       <c r="A86" s="75"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
@@ -13752,7 +13754,7 @@
       <c r="H86" s="75"/>
       <c r="I86" s="75"/>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" ht="18.75" customHeight="1">
       <c r="A87" s="75"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
@@ -13763,7 +13765,7 @@
       <c r="H87" s="75"/>
       <c r="I87" s="75"/>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" ht="18.75" customHeight="1">
       <c r="A88" s="75"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -13774,7 +13776,7 @@
       <c r="H88" s="75"/>
       <c r="I88" s="75"/>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" ht="18.75" customHeight="1">
       <c r="A89" s="75"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
@@ -13785,7 +13787,7 @@
       <c r="H89" s="75"/>
       <c r="I89" s="75"/>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" ht="18.75" customHeight="1">
       <c r="A90" s="75"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
@@ -13796,7 +13798,7 @@
       <c r="H90" s="75"/>
       <c r="I90" s="75"/>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" ht="18.75" customHeight="1">
       <c r="A91" s="75"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
@@ -13807,7 +13809,7 @@
       <c r="H91" s="75"/>
       <c r="I91" s="75"/>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" ht="18.75" customHeight="1">
       <c r="A92" s="75"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
@@ -13818,7 +13820,7 @@
       <c r="H92" s="75"/>
       <c r="I92" s="75"/>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1">
       <c r="A93" s="75"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
@@ -13829,7 +13831,7 @@
       <c r="H93" s="75"/>
       <c r="I93" s="75"/>
     </row>
-    <row r="94" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" ht="26.25" customHeight="1">
       <c r="A94" s="75"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -13840,7 +13842,7 @@
       <c r="H94" s="75"/>
       <c r="I94" s="75"/>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" ht="18.75" customHeight="1">
       <c r="A95" s="75"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
@@ -13851,7 +13853,7 @@
       <c r="H95" s="75"/>
       <c r="I95" s="75"/>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" ht="18.75" customHeight="1">
       <c r="A96" s="75"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
@@ -13862,7 +13864,7 @@
       <c r="H96" s="75"/>
       <c r="I96" s="75"/>
     </row>
-    <row r="97" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" ht="28.5" customHeight="1">
       <c r="A97" s="75"/>
       <c r="B97" s="75"/>
       <c r="C97" s="75"/>
@@ -13873,7 +13875,7 @@
       <c r="H97" s="75"/>
       <c r="I97" s="75"/>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" ht="18.75" customHeight="1">
       <c r="A98" s="75"/>
       <c r="B98" s="75"/>
       <c r="C98" s="75"/>
@@ -13884,7 +13886,7 @@
       <c r="H98" s="75"/>
       <c r="I98" s="75"/>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" ht="18.75" customHeight="1">
       <c r="A99" s="75"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -13895,7 +13897,7 @@
       <c r="H99" s="75"/>
       <c r="I99" s="75"/>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" ht="18.75" customHeight="1">
       <c r="A100" s="75"/>
       <c r="B100" s="75"/>
       <c r="C100" s="75"/>
@@ -13906,7 +13908,7 @@
       <c r="H100" s="75"/>
       <c r="I100" s="75"/>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" ht="18.75" customHeight="1">
       <c r="A101" s="75"/>
       <c r="B101" s="75"/>
       <c r="C101" s="75"/>
@@ -13917,7 +13919,7 @@
       <c r="H101" s="75"/>
       <c r="I101" s="75"/>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" ht="18.75" customHeight="1">
       <c r="A102" s="75"/>
       <c r="B102" s="75"/>
       <c r="C102" s="75"/>
@@ -13928,7 +13930,7 @@
       <c r="H102" s="75"/>
       <c r="I102" s="75"/>
     </row>
-    <row r="103" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" ht="26.25" customHeight="1">
       <c r="A103" s="75"/>
       <c r="B103" s="75"/>
       <c r="C103" s="75"/>
@@ -13939,7 +13941,7 @@
       <c r="H103" s="75"/>
       <c r="I103" s="75"/>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" ht="18.75" customHeight="1">
       <c r="A104" s="75"/>
       <c r="B104" s="75"/>
       <c r="C104" s="75"/>
@@ -13950,7 +13952,7 @@
       <c r="H104" s="75"/>
       <c r="I104" s="75"/>
     </row>
-    <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" ht="12.75" customHeight="1">
       <c r="A105" s="75"/>
       <c r="B105" s="75"/>
       <c r="C105" s="75"/>
@@ -13961,7 +13963,7 @@
       <c r="H105" s="75"/>
       <c r="I105" s="75"/>
     </row>
-    <row r="106" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" ht="33" customHeight="1">
       <c r="A106" s="75"/>
       <c r="B106" s="75"/>
       <c r="C106" s="75"/>
@@ -13972,7 +13974,7 @@
       <c r="H106" s="75"/>
       <c r="I106" s="75"/>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" ht="18.75" customHeight="1">
       <c r="A107" s="75"/>
       <c r="B107" s="75"/>
       <c r="C107" s="75"/>
@@ -13983,7 +13985,7 @@
       <c r="H107" s="75"/>
       <c r="I107" s="75"/>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" ht="18.75" customHeight="1">
       <c r="A108" s="75"/>
       <c r="B108" s="75"/>
       <c r="C108" s="75"/>
@@ -13994,7 +13996,7 @@
       <c r="H108" s="75"/>
       <c r="I108" s="75"/>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" ht="18.75" customHeight="1">
       <c r="A109" s="75"/>
       <c r="B109" s="75"/>
       <c r="C109" s="75"/>
@@ -14005,7 +14007,7 @@
       <c r="H109" s="75"/>
       <c r="I109" s="75"/>
     </row>
-    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="18.75">
       <c r="A110" s="70"/>
       <c r="B110" s="69"/>
       <c r="C110" s="74"/>
@@ -14016,7 +14018,7 @@
       <c r="H110" s="69"/>
       <c r="I110" s="71"/>
     </row>
-    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="18.75">
       <c r="A111" s="70"/>
       <c r="B111" s="69"/>
       <c r="C111" s="74"/>
@@ -14027,7 +14029,7 @@
       <c r="H111" s="69"/>
       <c r="I111" s="71"/>
     </row>
-    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" ht="18.75">
       <c r="A112" s="70"/>
       <c r="B112" s="69"/>
       <c r="C112" s="74"/>
@@ -14038,7 +14040,7 @@
       <c r="H112" s="69"/>
       <c r="I112" s="71"/>
     </row>
-    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="18.75">
       <c r="A113" s="70"/>
       <c r="B113" s="69"/>
       <c r="C113" s="74"/>
